--- a/teaching/traditional_assets/database/data/south_korea/south_korea_hospitals_healthcare_facilities.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_hospitals_healthcare_facilities.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="kosdaq_a085660" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,121 +593,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.109</v>
-      </c>
-      <c r="E2">
-        <v>0.662</v>
+        <v>0.0911</v>
       </c>
       <c r="G2">
-        <v>0.0916247906197655</v>
+        <v>0.05929344931652761</v>
       </c>
       <c r="H2">
-        <v>0.07083034218712611</v>
+        <v>0.04118586898633055</v>
       </c>
       <c r="I2">
-        <v>-0.01866475233309404</v>
+        <v>0.02094798508787503</v>
       </c>
       <c r="J2">
-        <v>-0.01602891669862383</v>
+        <v>0.01047399254393751</v>
       </c>
       <c r="K2">
-        <v>38.7</v>
+        <v>-6.59</v>
       </c>
       <c r="L2">
-        <v>0.09260588657573583</v>
+        <v>-0.01169891709568614</v>
       </c>
       <c r="M2">
-        <v>0.534</v>
+        <v>0.064</v>
       </c>
       <c r="N2">
-        <v>0.0008140243902439025</v>
+        <v>6.609521842404214e-05</v>
       </c>
       <c r="O2">
-        <v>0.0137984496124031</v>
+        <v>-0.009711684370257967</v>
       </c>
       <c r="P2">
-        <v>0.417</v>
+        <v>0.064</v>
       </c>
       <c r="Q2">
-        <v>0.0006356707317073171</v>
+        <v>6.609521842404214e-05</v>
       </c>
       <c r="R2">
-        <v>0.01077519379844961</v>
+        <v>-0.009711684370257967</v>
       </c>
       <c r="S2">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.2191011235955057</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>76.59999999999999</v>
+        <v>104.6</v>
       </c>
       <c r="V2">
-        <v>0.1167682926829268</v>
+        <v>0.1080243726117939</v>
       </c>
       <c r="W2">
-        <v>0.1417063346759429</v>
+        <v>-0.02063889758847479</v>
       </c>
       <c r="X2">
-        <v>0.05372765256186909</v>
+        <v>0.05001088042899716</v>
       </c>
       <c r="Y2">
-        <v>0.08797868211407378</v>
+        <v>-0.07064977801747195</v>
       </c>
       <c r="Z2">
-        <v>1.390682196339434</v>
+        <v>1.431875953228266</v>
       </c>
       <c r="AA2">
-        <v>-0.02229112907938402</v>
+        <v>0.01499745805795628</v>
       </c>
       <c r="AB2">
-        <v>0.04899489770776178</v>
+        <v>0.04444949184599642</v>
       </c>
       <c r="AC2">
-        <v>-0.07128602678714581</v>
+        <v>-0.02945203378804014</v>
       </c>
       <c r="AD2">
-        <v>178.6</v>
+        <v>246.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>178.6</v>
+        <v>246.9</v>
       </c>
       <c r="AG2">
-        <v>102</v>
+        <v>142.3</v>
       </c>
       <c r="AH2">
-        <v>0.2139947280134196</v>
+        <v>0.2031764318630678</v>
       </c>
       <c r="AI2">
-        <v>0.2408631153068105</v>
+        <v>0.3006575742815392</v>
       </c>
       <c r="AJ2">
-        <v>0.1345646437994723</v>
+        <v>0.1281289393120836</v>
       </c>
       <c r="AK2">
-        <v>0.1534065272973379</v>
+        <v>0.1985766117778398</v>
       </c>
       <c r="AL2">
-        <v>7.83</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AM2">
-        <v>3.16</v>
+        <v>5.869999999999999</v>
       </c>
       <c r="AN2">
-        <v>19.71302428256071</v>
+        <v>7.370149253731343</v>
       </c>
       <c r="AO2">
-        <v>-0.9961685823754789</v>
+        <v>1.205311542390194</v>
       </c>
       <c r="AP2">
-        <v>11.25827814569536</v>
+        <v>4.247761194029851</v>
       </c>
       <c r="AQ2">
-        <v>-2.468354430379747</v>
+        <v>2.010221465076661</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +724,8836 @@
         </is>
       </c>
       <c r="D3">
+        <v>0.0911</v>
+      </c>
+      <c r="G3">
+        <v>0.05929344931652761</v>
+      </c>
+      <c r="H3">
+        <v>0.04118586898633055</v>
+      </c>
+      <c r="I3">
+        <v>0.02094798508787503</v>
+      </c>
+      <c r="J3">
+        <v>0.01047399254393751</v>
+      </c>
+      <c r="K3">
+        <v>-6.59</v>
+      </c>
+      <c r="L3">
+        <v>-0.01169891709568614</v>
+      </c>
+      <c r="M3">
+        <v>0.064</v>
+      </c>
+      <c r="N3">
+        <v>6.609521842404214e-05</v>
+      </c>
+      <c r="O3">
+        <v>-0.009711684370257967</v>
+      </c>
+      <c r="P3">
+        <v>0.064</v>
+      </c>
+      <c r="Q3">
+        <v>6.609521842404214e-05</v>
+      </c>
+      <c r="R3">
+        <v>-0.009711684370257967</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>104.6</v>
+      </c>
+      <c r="V3">
+        <v>0.1080243726117939</v>
+      </c>
+      <c r="W3">
+        <v>-0.02063889758847479</v>
+      </c>
+      <c r="X3">
+        <v>0.05001088042899716</v>
+      </c>
+      <c r="Y3">
+        <v>-0.07064977801747195</v>
+      </c>
+      <c r="Z3">
+        <v>1.431875953228266</v>
+      </c>
+      <c r="AA3">
+        <v>0.01499745805795628</v>
+      </c>
+      <c r="AB3">
+        <v>0.04444949184599642</v>
+      </c>
+      <c r="AC3">
+        <v>-0.02945203378804014</v>
+      </c>
+      <c r="AD3">
+        <v>246.9</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>246.9</v>
+      </c>
+      <c r="AG3">
+        <v>142.3</v>
+      </c>
+      <c r="AH3">
+        <v>0.2031764318630678</v>
+      </c>
+      <c r="AI3">
+        <v>0.3006575742815392</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1281289393120836</v>
+      </c>
+      <c r="AK3">
+        <v>0.1985766117778398</v>
+      </c>
+      <c r="AL3">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>5.869999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>7.370149253731343</v>
+      </c>
+      <c r="AO3">
+        <v>1.205311542390194</v>
+      </c>
+      <c r="AP3">
+        <v>4.247761194029851</v>
+      </c>
+      <c r="AQ3">
+        <v>2.010221465076661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CHA Biotech Co., Ltd. (KOSDAQ:A085660)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KOSDAQ:A085660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hospitals/Healthcare Facilities</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.203176431863068</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>968.3</v>
+      </c>
+      <c r="H2">
+        <v>1154.87913251986</v>
+      </c>
+      <c r="I2">
+        <v>1110.6</v>
+      </c>
+      <c r="J2">
+        <v>1159.64713251986</v>
+      </c>
+      <c r="K2">
+        <v>246.9</v>
+      </c>
+      <c r="L2">
+        <v>109.368</v>
+      </c>
+      <c r="M2">
+        <v>0.0444494918459964</v>
+      </c>
+      <c r="N2">
+        <v>0.0429628484212588</v>
+      </c>
+      <c r="O2">
+        <v>0.0226386673627254</v>
+      </c>
+      <c r="P2">
+        <v>0.01215</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0500108804289972</v>
+      </c>
+      <c r="T2">
+        <v>0.0460102729903943</v>
+      </c>
+      <c r="U2">
+        <v>0.7828187054283809</v>
+      </c>
+      <c r="V2">
+        <v>0.7058920877032679</v>
+      </c>
+      <c r="W2">
+        <v>14.06509769711681</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>968.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.05200550286636164</v>
+      </c>
+      <c r="AC2">
+        <v>0.03018488981696718</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>33.5</v>
+      </c>
+      <c r="AH2">
+        <v>8.58</v>
+      </c>
+      <c r="AI2">
+        <v>111.03</v>
+      </c>
+      <c r="AJ2">
+        <v>246.9</v>
+      </c>
+      <c r="AK2">
+        <v>246.9</v>
+      </c>
+      <c r="AL2">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>246.9</v>
+      </c>
+      <c r="AN2">
+        <v>104.6</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04347529250256656</v>
+      </c>
+      <c r="C2">
+        <v>1246.858713403315</v>
+      </c>
+      <c r="D2">
+        <v>1142.258713403315</v>
+      </c>
+      <c r="E2">
+        <v>-246.9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>104.6</v>
+      </c>
+      <c r="H2">
+        <v>968.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>33.5</v>
+      </c>
+      <c r="K2">
+        <v>8.58</v>
+      </c>
+      <c r="L2">
+        <v>24.92</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>24.92</v>
+      </c>
+      <c r="O2">
+        <v>6.23</v>
+      </c>
+      <c r="P2">
+        <v>18.69</v>
+      </c>
+      <c r="Q2">
+        <v>27.27</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04347529250256656</v>
+      </c>
+      <c r="T2">
+        <v>0.6571476212889756</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04341835427131013</v>
+      </c>
+      <c r="C3">
+        <v>1236.612965687972</v>
+      </c>
+      <c r="D3">
+        <v>1144.164965687972</v>
+      </c>
+      <c r="E3">
+        <v>-234.748</v>
+      </c>
+      <c r="F3">
+        <v>12.152</v>
+      </c>
+      <c r="G3">
+        <v>104.6</v>
+      </c>
+      <c r="H3">
+        <v>968.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>33.5</v>
+      </c>
+      <c r="K3">
+        <v>8.58</v>
+      </c>
+      <c r="L3">
+        <v>24.92</v>
+      </c>
+      <c r="M3">
+        <v>0.1968624</v>
+      </c>
+      <c r="N3">
+        <v>24.7231376</v>
+      </c>
+      <c r="O3">
+        <v>6.1807844</v>
+      </c>
+      <c r="P3">
+        <v>18.5423532</v>
+      </c>
+      <c r="Q3">
+        <v>27.1223532</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04373419623364661</v>
+      </c>
+      <c r="T3">
+        <v>0.6621260123593466</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>126.5858792740513</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04336141604005372</v>
+      </c>
+      <c r="C4">
+        <v>1226.373591086024</v>
+      </c>
+      <c r="D4">
+        <v>1146.077591086024</v>
+      </c>
+      <c r="E4">
+        <v>-222.596</v>
+      </c>
+      <c r="F4">
+        <v>24.304</v>
+      </c>
+      <c r="G4">
+        <v>104.6</v>
+      </c>
+      <c r="H4">
+        <v>968.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>33.5</v>
+      </c>
+      <c r="K4">
+        <v>8.58</v>
+      </c>
+      <c r="L4">
+        <v>24.92</v>
+      </c>
+      <c r="M4">
+        <v>0.3937248</v>
+      </c>
+      <c r="N4">
+        <v>24.5262752</v>
+      </c>
+      <c r="O4">
+        <v>6.1315688</v>
+      </c>
+      <c r="P4">
+        <v>18.3947064</v>
+      </c>
+      <c r="Q4">
+        <v>26.9747064</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04399838371434053</v>
+      </c>
+      <c r="T4">
+        <v>0.6672060032474804</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>63.29293963702566</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04330447780879729</v>
+      </c>
+      <c r="C5">
+        <v>1216.140621611533</v>
+      </c>
+      <c r="D5">
+        <v>1147.996621611533</v>
+      </c>
+      <c r="E5">
+        <v>-210.444</v>
+      </c>
+      <c r="F5">
+        <v>36.456</v>
+      </c>
+      <c r="G5">
+        <v>104.6</v>
+      </c>
+      <c r="H5">
+        <v>968.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>33.5</v>
+      </c>
+      <c r="K5">
+        <v>8.58</v>
+      </c>
+      <c r="L5">
+        <v>24.92</v>
+      </c>
+      <c r="M5">
+        <v>0.5905872</v>
+      </c>
+      <c r="N5">
+        <v>24.3294128</v>
+      </c>
+      <c r="O5">
+        <v>6.0823532</v>
+      </c>
+      <c r="P5">
+        <v>18.2470596</v>
+      </c>
+      <c r="Q5">
+        <v>26.8270596</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04426801835958484</v>
+      </c>
+      <c r="T5">
+        <v>0.6723907362157817</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>42.19529309135044</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04324753957754088</v>
+      </c>
+      <c r="C6">
+        <v>1205.914089493339</v>
+      </c>
+      <c r="D6">
+        <v>1149.922089493339</v>
+      </c>
+      <c r="E6">
+        <v>-198.292</v>
+      </c>
+      <c r="F6">
+        <v>48.608</v>
+      </c>
+      <c r="G6">
+        <v>104.6</v>
+      </c>
+      <c r="H6">
+        <v>968.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>33.5</v>
+      </c>
+      <c r="K6">
+        <v>8.58</v>
+      </c>
+      <c r="L6">
+        <v>24.92</v>
+      </c>
+      <c r="M6">
+        <v>0.7874496</v>
+      </c>
+      <c r="N6">
+        <v>24.1325504</v>
+      </c>
+      <c r="O6">
+        <v>6.033137600000001</v>
+      </c>
+      <c r="P6">
+        <v>18.0994128</v>
+      </c>
+      <c r="Q6">
+        <v>26.6794128</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04454327039327176</v>
+      </c>
+      <c r="T6">
+        <v>0.6776834844542561</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.01215</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>31.64646981851283</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04319060134628446</v>
+      </c>
+      <c r="C7">
+        <v>1195.69402717687</v>
+      </c>
+      <c r="D7">
+        <v>1151.85402717687</v>
+      </c>
+      <c r="E7">
+        <v>-186.14</v>
+      </c>
+      <c r="F7">
+        <v>60.76000000000001</v>
+      </c>
+      <c r="G7">
+        <v>104.6</v>
+      </c>
+      <c r="H7">
+        <v>968.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>33.5</v>
+      </c>
+      <c r="K7">
+        <v>8.58</v>
+      </c>
+      <c r="L7">
+        <v>24.92</v>
+      </c>
+      <c r="M7">
+        <v>0.9843120000000001</v>
+      </c>
+      <c r="N7">
+        <v>23.935688</v>
+      </c>
+      <c r="O7">
+        <v>5.983922000000001</v>
+      </c>
+      <c r="P7">
+        <v>17.951766</v>
+      </c>
+      <c r="Q7">
+        <v>26.531766</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04482431720661523</v>
+      </c>
+      <c r="T7">
+        <v>0.6830876589714352</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.01215</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>25.31717585481026</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04313366311502805</v>
+      </c>
+      <c r="C8">
+        <v>1185.480467325962</v>
+      </c>
+      <c r="D8">
+        <v>1153.792467325962</v>
+      </c>
+      <c r="E8">
+        <v>-173.988</v>
+      </c>
+      <c r="F8">
+        <v>72.91200000000001</v>
+      </c>
+      <c r="G8">
+        <v>104.6</v>
+      </c>
+      <c r="H8">
+        <v>968.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>33.5</v>
+      </c>
+      <c r="K8">
+        <v>8.58</v>
+      </c>
+      <c r="L8">
+        <v>24.92</v>
+      </c>
+      <c r="M8">
+        <v>1.1811744</v>
+      </c>
+      <c r="N8">
+        <v>23.7388256</v>
+      </c>
+      <c r="O8">
+        <v>5.9347064</v>
+      </c>
+      <c r="P8">
+        <v>17.8041192</v>
+      </c>
+      <c r="Q8">
+        <v>26.3841192</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04511134373939155</v>
+      </c>
+      <c r="T8">
+        <v>0.6886068159251499</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01215</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>21.09764654567522</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04307672488377164</v>
+      </c>
+      <c r="C9">
+        <v>1175.273442824699</v>
+      </c>
+      <c r="D9">
+        <v>1155.737442824699</v>
+      </c>
+      <c r="E9">
+        <v>-161.836</v>
+      </c>
+      <c r="F9">
+        <v>85.06400000000001</v>
+      </c>
+      <c r="G9">
+        <v>104.6</v>
+      </c>
+      <c r="H9">
+        <v>968.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>33.5</v>
+      </c>
+      <c r="K9">
+        <v>8.58</v>
+      </c>
+      <c r="L9">
+        <v>24.92</v>
+      </c>
+      <c r="M9">
+        <v>1.3780368</v>
+      </c>
+      <c r="N9">
+        <v>23.5419632</v>
+      </c>
+      <c r="O9">
+        <v>5.8854908</v>
+      </c>
+      <c r="P9">
+        <v>17.6564724</v>
+      </c>
+      <c r="Q9">
+        <v>26.2364724</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04540454288577596</v>
+      </c>
+      <c r="T9">
+        <v>0.6942446644262565</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <v>0.01215</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>18.08369703915019</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04301978665251523</v>
+      </c>
+      <c r="C10">
+        <v>1165.072986779273</v>
+      </c>
+      <c r="D10">
+        <v>1157.688986779274</v>
+      </c>
+      <c r="E10">
+        <v>-149.684</v>
+      </c>
+      <c r="F10">
+        <v>97.21600000000001</v>
+      </c>
+      <c r="G10">
+        <v>104.6</v>
+      </c>
+      <c r="H10">
+        <v>968.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>33.5</v>
+      </c>
+      <c r="K10">
+        <v>8.58</v>
+      </c>
+      <c r="L10">
+        <v>24.92</v>
+      </c>
+      <c r="M10">
+        <v>1.5748992</v>
+      </c>
+      <c r="N10">
+        <v>23.3451008</v>
+      </c>
+      <c r="O10">
+        <v>5.8362752</v>
+      </c>
+      <c r="P10">
+        <v>17.5088256</v>
+      </c>
+      <c r="Q10">
+        <v>26.0888256</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04570411592664698</v>
+      </c>
+      <c r="T10">
+        <v>0.7000050748513001</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <v>0.01215</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>15.82323490925642</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0429628484212588</v>
+      </c>
+      <c r="C11">
+        <v>1154.879132519865</v>
+      </c>
+      <c r="D11">
+        <v>1159.647132519865</v>
+      </c>
+      <c r="E11">
+        <v>-137.532</v>
+      </c>
+      <c r="F11">
+        <v>109.368</v>
+      </c>
+      <c r="G11">
+        <v>104.6</v>
+      </c>
+      <c r="H11">
+        <v>968.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>33.5</v>
+      </c>
+      <c r="K11">
+        <v>8.58</v>
+      </c>
+      <c r="L11">
+        <v>24.92</v>
+      </c>
+      <c r="M11">
+        <v>1.7717616</v>
+      </c>
+      <c r="N11">
+        <v>23.1482384</v>
+      </c>
+      <c r="O11">
+        <v>5.7870596</v>
+      </c>
+      <c r="P11">
+        <v>17.3611788</v>
+      </c>
+      <c r="Q11">
+        <v>25.9411788</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04601027299039429</v>
+      </c>
+      <c r="T11">
+        <v>0.7058920877032677</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.25</v>
+      </c>
+      <c r="W11">
+        <v>0.01215</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>14.06509769711681</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0430259101900024</v>
+      </c>
+      <c r="C12">
+        <v>1140.558787799644</v>
+      </c>
+      <c r="D12">
+        <v>1157.478787799644</v>
+      </c>
+      <c r="E12">
+        <v>-125.38</v>
+      </c>
+      <c r="F12">
+        <v>121.52</v>
+      </c>
+      <c r="G12">
+        <v>104.6</v>
+      </c>
+      <c r="H12">
+        <v>968.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>33.5</v>
+      </c>
+      <c r="K12">
+        <v>8.58</v>
+      </c>
+      <c r="L12">
+        <v>24.92</v>
+      </c>
+      <c r="M12">
+        <v>2.163056</v>
+      </c>
+      <c r="N12">
+        <v>22.756944</v>
+      </c>
+      <c r="O12">
+        <v>5.689236</v>
+      </c>
+      <c r="P12">
+        <v>17.067708</v>
+      </c>
+      <c r="Q12">
+        <v>25.647708</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0463232335444471</v>
+      </c>
+      <c r="T12">
+        <v>0.7119099230630569</v>
+      </c>
+      <c r="U12">
+        <v>0.0178</v>
+      </c>
+      <c r="V12">
+        <v>0.25</v>
+      </c>
+      <c r="W12">
+        <v>0.01335</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>11.52073732718894</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.04316247195874598</v>
+      </c>
+      <c r="C13">
+        <v>1123.738866605418</v>
+      </c>
+      <c r="D13">
+        <v>1152.810866605418</v>
+      </c>
+      <c r="E13">
+        <v>-113.228</v>
+      </c>
+      <c r="F13">
+        <v>133.672</v>
+      </c>
+      <c r="G13">
+        <v>104.6</v>
+      </c>
+      <c r="H13">
+        <v>968.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>33.5</v>
+      </c>
+      <c r="K13">
+        <v>8.58</v>
+      </c>
+      <c r="L13">
+        <v>24.92</v>
+      </c>
+      <c r="M13">
+        <v>2.673439999999999</v>
+      </c>
+      <c r="N13">
+        <v>22.24656</v>
+      </c>
+      <c r="O13">
+        <v>5.561640000000001</v>
+      </c>
+      <c r="P13">
+        <v>16.68492</v>
+      </c>
+      <c r="Q13">
+        <v>25.26492</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0466432269199393</v>
+      </c>
+      <c r="T13">
+        <v>0.7180629906781223</v>
+      </c>
+      <c r="U13">
+        <v>0.02</v>
+      </c>
+      <c r="V13">
+        <v>0.25</v>
+      </c>
+      <c r="W13">
+        <v>0.015</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>9.321323837452873</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.04313403372748956</v>
+      </c>
+      <c r="C14">
+        <v>1112.555828872332</v>
+      </c>
+      <c r="D14">
+        <v>1153.779828872332</v>
+      </c>
+      <c r="E14">
+        <v>-101.076</v>
+      </c>
+      <c r="F14">
+        <v>145.824</v>
+      </c>
+      <c r="G14">
+        <v>104.6</v>
+      </c>
+      <c r="H14">
+        <v>968.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>33.5</v>
+      </c>
+      <c r="K14">
+        <v>8.58</v>
+      </c>
+      <c r="L14">
+        <v>24.92</v>
+      </c>
+      <c r="M14">
+        <v>2.91648</v>
+      </c>
+      <c r="N14">
+        <v>22.00352</v>
+      </c>
+      <c r="O14">
+        <v>5.50088</v>
+      </c>
+      <c r="P14">
+        <v>16.50264</v>
+      </c>
+      <c r="Q14">
+        <v>25.08264</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.04697049287214722</v>
+      </c>
+      <c r="T14">
+        <v>0.7243559007389845</v>
+      </c>
+      <c r="U14">
+        <v>0.02</v>
+      </c>
+      <c r="V14">
+        <v>0.25</v>
+      </c>
+      <c r="W14">
+        <v>0.015</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>8.544546850998465</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.04321284549623314</v>
+      </c>
+      <c r="C15">
+        <v>1097.722501849385</v>
+      </c>
+      <c r="D15">
+        <v>1151.098501849385</v>
+      </c>
+      <c r="E15">
+        <v>-88.92400000000001</v>
+      </c>
+      <c r="F15">
+        <v>157.976</v>
+      </c>
+      <c r="G15">
+        <v>104.6</v>
+      </c>
+      <c r="H15">
+        <v>968.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>33.5</v>
+      </c>
+      <c r="K15">
+        <v>8.58</v>
+      </c>
+      <c r="L15">
+        <v>24.92</v>
+      </c>
+      <c r="M15">
+        <v>3.3332936</v>
+      </c>
+      <c r="N15">
+        <v>21.5867064</v>
+      </c>
+      <c r="O15">
+        <v>5.3966766</v>
+      </c>
+      <c r="P15">
+        <v>16.1900298</v>
+      </c>
+      <c r="Q15">
+        <v>24.7700298</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.04730528217957831</v>
+      </c>
+      <c r="T15">
+        <v>0.730793475398947</v>
+      </c>
+      <c r="U15">
+        <v>0.0211</v>
+      </c>
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.015825</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>7.47608911498225</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.04319265726497672</v>
+      </c>
+      <c r="C16">
+        <v>1086.25615604795</v>
+      </c>
+      <c r="D16">
+        <v>1151.78415604795</v>
+      </c>
+      <c r="E16">
+        <v>-76.77199999999999</v>
+      </c>
+      <c r="F16">
+        <v>170.128</v>
+      </c>
+      <c r="G16">
+        <v>104.6</v>
+      </c>
+      <c r="H16">
+        <v>968.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>33.5</v>
+      </c>
+      <c r="K16">
+        <v>8.58</v>
+      </c>
+      <c r="L16">
+        <v>24.92</v>
+      </c>
+      <c r="M16">
+        <v>3.589700800000001</v>
+      </c>
+      <c r="N16">
+        <v>21.3302992</v>
+      </c>
+      <c r="O16">
+        <v>5.332574800000001</v>
+      </c>
+      <c r="P16">
+        <v>15.9977244</v>
+      </c>
+      <c r="Q16">
+        <v>24.5777244</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.04764785728485665</v>
+      </c>
+      <c r="T16">
+        <v>0.7373807610975134</v>
+      </c>
+      <c r="U16">
+        <v>0.0211</v>
+      </c>
+      <c r="V16">
+        <v>0.25</v>
+      </c>
+      <c r="W16">
+        <v>0.015825</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>6.942082749626375</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.04317246903372031</v>
+      </c>
+      <c r="C17">
+        <v>1074.790627556024</v>
+      </c>
+      <c r="D17">
+        <v>1152.470627556024</v>
+      </c>
+      <c r="E17">
+        <v>-64.62</v>
+      </c>
+      <c r="F17">
+        <v>182.28</v>
+      </c>
+      <c r="G17">
+        <v>104.6</v>
+      </c>
+      <c r="H17">
+        <v>968.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>33.5</v>
+      </c>
+      <c r="K17">
+        <v>8.58</v>
+      </c>
+      <c r="L17">
+        <v>24.92</v>
+      </c>
+      <c r="M17">
+        <v>3.846108</v>
+      </c>
+      <c r="N17">
+        <v>21.073892</v>
+      </c>
+      <c r="O17">
+        <v>5.268473</v>
+      </c>
+      <c r="P17">
+        <v>15.805419</v>
+      </c>
+      <c r="Q17">
+        <v>24.385419</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.04799849298084742</v>
+      </c>
+      <c r="T17">
+        <v>0.744123041753693</v>
+      </c>
+      <c r="U17">
+        <v>0.0211</v>
+      </c>
+      <c r="V17">
+        <v>0.25</v>
+      </c>
+      <c r="W17">
+        <v>0.015825</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>6.479277232984617</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.04333228080246389</v>
+      </c>
+      <c r="C18">
+        <v>1057.22675491417</v>
+      </c>
+      <c r="D18">
+        <v>1147.05875491417</v>
+      </c>
+      <c r="E18">
+        <v>-52.46799999999999</v>
+      </c>
+      <c r="F18">
+        <v>194.432</v>
+      </c>
+      <c r="G18">
+        <v>104.6</v>
+      </c>
+      <c r="H18">
+        <v>968.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>33.5</v>
+      </c>
+      <c r="K18">
+        <v>8.58</v>
+      </c>
+      <c r="L18">
+        <v>24.92</v>
+      </c>
+      <c r="M18">
+        <v>4.3941632</v>
+      </c>
+      <c r="N18">
+        <v>20.5258368</v>
+      </c>
+      <c r="O18">
+        <v>5.1314592</v>
+      </c>
+      <c r="P18">
+        <v>15.3943776</v>
+      </c>
+      <c r="Q18">
+        <v>23.9743776</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.04835747714579035</v>
+      </c>
+      <c r="T18">
+        <v>0.7510258529016864</v>
+      </c>
+      <c r="U18">
+        <v>0.0226</v>
+      </c>
+      <c r="V18">
+        <v>0.25</v>
+      </c>
+      <c r="W18">
+        <v>0.01695</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>5.671159414379511</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.04332334257120748</v>
+      </c>
+      <c r="C19">
+        <v>1045.376097335028</v>
+      </c>
+      <c r="D19">
+        <v>1147.360097335028</v>
+      </c>
+      <c r="E19">
+        <v>-40.31599999999997</v>
+      </c>
+      <c r="F19">
+        <v>206.584</v>
+      </c>
+      <c r="G19">
+        <v>104.6</v>
+      </c>
+      <c r="H19">
+        <v>968.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>33.5</v>
+      </c>
+      <c r="K19">
+        <v>8.58</v>
+      </c>
+      <c r="L19">
+        <v>24.92</v>
+      </c>
+      <c r="M19">
+        <v>4.6687984</v>
+      </c>
+      <c r="N19">
+        <v>20.2512016</v>
+      </c>
+      <c r="O19">
+        <v>5.0628004</v>
+      </c>
+      <c r="P19">
+        <v>15.1884012</v>
+      </c>
+      <c r="Q19">
+        <v>23.7684012</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.04872511153157527</v>
+      </c>
+      <c r="T19">
+        <v>0.7580949968484268</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0.25</v>
+      </c>
+      <c r="W19">
+        <v>0.01695</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>5.337561801768953</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.04331440433995105</v>
+      </c>
+      <c r="C20">
+        <v>1033.525598128101</v>
+      </c>
+      <c r="D20">
+        <v>1147.661598128101</v>
+      </c>
+      <c r="E20">
+        <v>-28.16400000000002</v>
+      </c>
+      <c r="F20">
+        <v>218.736</v>
+      </c>
+      <c r="G20">
+        <v>104.6</v>
+      </c>
+      <c r="H20">
+        <v>968.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>33.5</v>
+      </c>
+      <c r="K20">
+        <v>8.58</v>
+      </c>
+      <c r="L20">
+        <v>24.92</v>
+      </c>
+      <c r="M20">
+        <v>4.9434336</v>
+      </c>
+      <c r="N20">
+        <v>19.9765664</v>
+      </c>
+      <c r="O20">
+        <v>4.994141600000001</v>
+      </c>
+      <c r="P20">
+        <v>14.9824248</v>
+      </c>
+      <c r="Q20">
+        <v>23.5624248</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.04910171260969641</v>
+      </c>
+      <c r="T20">
+        <v>0.7653365589402094</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0.25</v>
+      </c>
+      <c r="W20">
+        <v>0.01695</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.041030590559567</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.04330546610869465</v>
+      </c>
+      <c r="C21">
+        <v>1021.675257418268</v>
+      </c>
+      <c r="D21">
+        <v>1147.963257418268</v>
+      </c>
+      <c r="E21">
+        <v>-16.012</v>
+      </c>
+      <c r="F21">
+        <v>230.888</v>
+      </c>
+      <c r="G21">
+        <v>104.6</v>
+      </c>
+      <c r="H21">
+        <v>968.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>33.5</v>
+      </c>
+      <c r="K21">
+        <v>8.58</v>
+      </c>
+      <c r="L21">
+        <v>24.92</v>
+      </c>
+      <c r="M21">
+        <v>5.2180688</v>
+      </c>
+      <c r="N21">
+        <v>19.7019312</v>
+      </c>
+      <c r="O21">
+        <v>4.9254828</v>
+      </c>
+      <c r="P21">
+        <v>14.7764484</v>
+      </c>
+      <c r="Q21">
+        <v>23.3564484</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.04948761247986994</v>
+      </c>
+      <c r="T21">
+        <v>0.7727569250342584</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0.25</v>
+      </c>
+      <c r="W21">
+        <v>0.01695</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>4.775713191056431</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.04329652787743823</v>
+      </c>
+      <c r="C22">
+        <v>1009.825075330546</v>
+      </c>
+      <c r="D22">
+        <v>1148.265075330546</v>
+      </c>
+      <c r="E22">
+        <v>-3.859999999999985</v>
+      </c>
+      <c r="F22">
+        <v>243.04</v>
+      </c>
+      <c r="G22">
+        <v>104.6</v>
+      </c>
+      <c r="H22">
+        <v>968.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>33.5</v>
+      </c>
+      <c r="K22">
+        <v>8.58</v>
+      </c>
+      <c r="L22">
+        <v>24.92</v>
+      </c>
+      <c r="M22">
+        <v>5.492704</v>
+      </c>
+      <c r="N22">
+        <v>19.427296</v>
+      </c>
+      <c r="O22">
+        <v>4.856824</v>
+      </c>
+      <c r="P22">
+        <v>14.570472</v>
+      </c>
+      <c r="Q22">
+        <v>23.150472</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.04988315984679778</v>
+      </c>
+      <c r="T22">
+        <v>0.7803628002806585</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+      <c r="W22">
+        <v>0.01695</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>4.53692753150361</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05767815675195964</v>
+      </c>
+      <c r="C23">
+        <v>656.3222824996607</v>
+      </c>
+      <c r="D23">
+        <v>806.9142824996607</v>
+      </c>
+      <c r="E23">
+        <v>8.292000000000002</v>
+      </c>
+      <c r="F23">
+        <v>255.192</v>
+      </c>
+      <c r="G23">
+        <v>104.6</v>
+      </c>
+      <c r="H23">
+        <v>968.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>33.5</v>
+      </c>
+      <c r="K23">
+        <v>8.58</v>
+      </c>
+      <c r="L23">
+        <v>24.92</v>
+      </c>
+      <c r="M23">
+        <v>27.815928</v>
+      </c>
+      <c r="N23">
+        <v>-2.895927999999998</v>
+      </c>
+      <c r="O23">
+        <v>-0.7239819999999995</v>
+      </c>
+      <c r="P23">
+        <v>-2.171945999999998</v>
+      </c>
+      <c r="Q23">
+        <v>6.408054000000002</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05052517071209964</v>
+      </c>
+      <c r="T23">
+        <v>0.7927078566673189</v>
+      </c>
+      <c r="U23">
         <v>0.109</v>
       </c>
-      <c r="E3">
-        <v>0.662</v>
-      </c>
-      <c r="G3">
-        <v>0.0916247906197655</v>
-      </c>
-      <c r="H3">
-        <v>0.07083034218712611</v>
-      </c>
-      <c r="I3">
-        <v>-0.01866475233309404</v>
-      </c>
-      <c r="J3">
-        <v>-0.01602891669862383</v>
-      </c>
-      <c r="K3">
-        <v>38.7</v>
-      </c>
-      <c r="L3">
-        <v>0.09260588657573583</v>
-      </c>
-      <c r="M3">
-        <v>0.534</v>
-      </c>
-      <c r="N3">
-        <v>0.0008140243902439025</v>
-      </c>
-      <c r="O3">
-        <v>0.0137984496124031</v>
-      </c>
-      <c r="P3">
-        <v>0.417</v>
-      </c>
-      <c r="Q3">
-        <v>0.0006356707317073171</v>
-      </c>
-      <c r="R3">
-        <v>0.01077519379844961</v>
-      </c>
-      <c r="S3">
-        <v>0.117</v>
-      </c>
-      <c r="T3">
-        <v>0.2191011235955057</v>
-      </c>
-      <c r="U3">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="V3">
-        <v>0.1167682926829268</v>
-      </c>
-      <c r="W3">
-        <v>0.1417063346759429</v>
-      </c>
-      <c r="X3">
-        <v>0.05372765256186909</v>
-      </c>
-      <c r="Y3">
-        <v>0.08797868211407378</v>
-      </c>
-      <c r="Z3">
-        <v>1.390682196339434</v>
-      </c>
-      <c r="AA3">
-        <v>-0.02229112907938402</v>
-      </c>
-      <c r="AB3">
-        <v>0.04899489770776178</v>
-      </c>
-      <c r="AC3">
-        <v>-0.07128602678714581</v>
-      </c>
-      <c r="AD3">
-        <v>178.6</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>178.6</v>
-      </c>
-      <c r="AG3">
-        <v>102</v>
-      </c>
-      <c r="AH3">
-        <v>0.2139947280134196</v>
-      </c>
-      <c r="AI3">
-        <v>0.2408631153068105</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1345646437994723</v>
-      </c>
-      <c r="AK3">
-        <v>0.1534065272973379</v>
-      </c>
-      <c r="AL3">
-        <v>7.83</v>
-      </c>
-      <c r="AM3">
-        <v>3.16</v>
-      </c>
-      <c r="AN3">
-        <v>19.71302428256071</v>
-      </c>
-      <c r="AO3">
-        <v>-0.9961685823754789</v>
-      </c>
-      <c r="AP3">
-        <v>11.25827814569536</v>
-      </c>
-      <c r="AQ3">
-        <v>-2.468354430379747</v>
+      <c r="V23">
+        <v>0.2239723945215849</v>
+      </c>
+      <c r="W23">
+        <v>0.08458700899714724</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.8958895780863396</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05867515675195964</v>
+      </c>
+      <c r="C24">
+        <v>627.8767941833885</v>
+      </c>
+      <c r="D24">
+        <v>790.6207941833885</v>
+      </c>
+      <c r="E24">
+        <v>20.44399999999999</v>
+      </c>
+      <c r="F24">
+        <v>267.344</v>
+      </c>
+      <c r="G24">
+        <v>104.6</v>
+      </c>
+      <c r="H24">
+        <v>968.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>33.5</v>
+      </c>
+      <c r="K24">
+        <v>8.58</v>
+      </c>
+      <c r="L24">
+        <v>24.92</v>
+      </c>
+      <c r="M24">
+        <v>29.140496</v>
+      </c>
+      <c r="N24">
+        <v>-4.220495999999997</v>
+      </c>
+      <c r="O24">
+        <v>-1.055123999999999</v>
+      </c>
+      <c r="P24">
+        <v>-3.165371999999998</v>
+      </c>
+      <c r="Q24">
+        <v>5.414628000000002</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05105369854174195</v>
+      </c>
+      <c r="T24">
+        <v>0.8028707779066436</v>
+      </c>
+      <c r="U24">
+        <v>0.109</v>
+      </c>
+      <c r="V24">
+        <v>0.2137918311342402</v>
+      </c>
+      <c r="W24">
+        <v>0.08569669040636782</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.8551673245369606</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05967215675195965</v>
+      </c>
+      <c r="C25">
+        <v>600.0762894810327</v>
+      </c>
+      <c r="D25">
+        <v>774.9722894810327</v>
+      </c>
+      <c r="E25">
+        <v>32.59600000000003</v>
+      </c>
+      <c r="F25">
+        <v>279.496</v>
+      </c>
+      <c r="G25">
+        <v>104.6</v>
+      </c>
+      <c r="H25">
+        <v>968.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>33.5</v>
+      </c>
+      <c r="K25">
+        <v>8.58</v>
+      </c>
+      <c r="L25">
+        <v>24.92</v>
+      </c>
+      <c r="M25">
+        <v>30.46506400000001</v>
+      </c>
+      <c r="N25">
+        <v>-5.545064000000004</v>
+      </c>
+      <c r="O25">
+        <v>-1.386266000000001</v>
+      </c>
+      <c r="P25">
+        <v>-4.158798000000003</v>
+      </c>
+      <c r="Q25">
+        <v>4.421201999999997</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05159595436695938</v>
+      </c>
+      <c r="T25">
+        <v>0.8132976711262103</v>
+      </c>
+      <c r="U25">
+        <v>0.109</v>
+      </c>
+      <c r="V25">
+        <v>0.2044965341284036</v>
+      </c>
+      <c r="W25">
+        <v>0.08670987778000401</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.8179861365136143</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.0685148680099357</v>
+      </c>
+      <c r="C26">
+        <v>472.1956487000796</v>
+      </c>
+      <c r="D26">
+        <v>659.2436487000796</v>
+      </c>
+      <c r="E26">
+        <v>44.74800000000002</v>
+      </c>
+      <c r="F26">
+        <v>291.648</v>
+      </c>
+      <c r="G26">
+        <v>104.6</v>
+      </c>
+      <c r="H26">
+        <v>968.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>33.5</v>
+      </c>
+      <c r="K26">
+        <v>8.58</v>
+      </c>
+      <c r="L26">
+        <v>24.92</v>
+      </c>
+      <c r="M26">
+        <v>40.8890496</v>
+      </c>
+      <c r="N26">
+        <v>-15.9690496</v>
+      </c>
+      <c r="O26">
+        <v>-3.9922624</v>
+      </c>
+      <c r="P26">
+        <v>-11.9767872</v>
+      </c>
+      <c r="Q26">
+        <v>-3.396787199999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05262315279017735</v>
+      </c>
+      <c r="T26">
+        <v>0.833049396743739</v>
+      </c>
+      <c r="U26">
+        <v>0.1402</v>
+      </c>
+      <c r="V26">
+        <v>0.1523635315798585</v>
+      </c>
+      <c r="W26">
+        <v>0.1188386328725038</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.609454126319434</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0698238680099357</v>
+      </c>
+      <c r="C27">
+        <v>445.785638356016</v>
+      </c>
+      <c r="D27">
+        <v>644.985638356016</v>
+      </c>
+      <c r="E27">
+        <v>56.90000000000001</v>
+      </c>
+      <c r="F27">
+        <v>303.8</v>
+      </c>
+      <c r="G27">
+        <v>104.6</v>
+      </c>
+      <c r="H27">
+        <v>968.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>33.5</v>
+      </c>
+      <c r="K27">
+        <v>8.58</v>
+      </c>
+      <c r="L27">
+        <v>24.92</v>
+      </c>
+      <c r="M27">
+        <v>42.59276</v>
+      </c>
+      <c r="N27">
+        <v>-17.67276</v>
+      </c>
+      <c r="O27">
+        <v>-4.418189999999999</v>
+      </c>
+      <c r="P27">
+        <v>-13.25457</v>
+      </c>
+      <c r="Q27">
+        <v>-4.674569999999997</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05320079482737972</v>
+      </c>
+      <c r="T27">
+        <v>0.8441567220336554</v>
+      </c>
+      <c r="U27">
+        <v>0.1402</v>
+      </c>
+      <c r="V27">
+        <v>0.1462689903166642</v>
+      </c>
+      <c r="W27">
+        <v>0.1196930875576037</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.5850759612666567</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07113286800993571</v>
+      </c>
+      <c r="C28">
+        <v>419.9793113325248</v>
+      </c>
+      <c r="D28">
+        <v>631.3313113325248</v>
+      </c>
+      <c r="E28">
+        <v>69.05199999999999</v>
+      </c>
+      <c r="F28">
+        <v>315.952</v>
+      </c>
+      <c r="G28">
+        <v>104.6</v>
+      </c>
+      <c r="H28">
+        <v>968.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>33.5</v>
+      </c>
+      <c r="K28">
+        <v>8.58</v>
+      </c>
+      <c r="L28">
+        <v>24.92</v>
+      </c>
+      <c r="M28">
+        <v>44.2964704</v>
+      </c>
+      <c r="N28">
+        <v>-19.3764704</v>
+      </c>
+      <c r="O28">
+        <v>-4.844117599999999</v>
+      </c>
+      <c r="P28">
+        <v>-14.5323528</v>
+      </c>
+      <c r="Q28">
+        <v>-5.952352799999996</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05379404881153349</v>
+      </c>
+      <c r="T28">
+        <v>0.8555642453043806</v>
+      </c>
+      <c r="U28">
+        <v>0.1402</v>
+      </c>
+      <c r="V28">
+        <v>0.1406432599198694</v>
+      </c>
+      <c r="W28">
+        <v>0.1204818149592343</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.5625730396794776</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07244186800993571</v>
+      </c>
+      <c r="C29">
+        <v>394.739122582641</v>
+      </c>
+      <c r="D29">
+        <v>618.243122582641</v>
+      </c>
+      <c r="E29">
+        <v>81.20400000000004</v>
+      </c>
+      <c r="F29">
+        <v>328.104</v>
+      </c>
+      <c r="G29">
+        <v>104.6</v>
+      </c>
+      <c r="H29">
+        <v>968.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>33.5</v>
+      </c>
+      <c r="K29">
+        <v>8.58</v>
+      </c>
+      <c r="L29">
+        <v>24.92</v>
+      </c>
+      <c r="M29">
+        <v>46.0001808</v>
+      </c>
+      <c r="N29">
+        <v>-21.0801808</v>
+      </c>
+      <c r="O29">
+        <v>-5.2700452</v>
+      </c>
+      <c r="P29">
+        <v>-15.8101356</v>
+      </c>
+      <c r="Q29">
+        <v>-7.230135600000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.0544035563294997</v>
+      </c>
+      <c r="T29">
+        <v>0.867284303459235</v>
+      </c>
+      <c r="U29">
+        <v>0.1402</v>
+      </c>
+      <c r="V29">
+        <v>0.1354342502932075</v>
+      </c>
+      <c r="W29">
+        <v>0.1212121181088923</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.5417370011728302</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07375086800993572</v>
+      </c>
+      <c r="C30">
+        <v>370.0305772257047</v>
+      </c>
+      <c r="D30">
+        <v>605.6865772257047</v>
+      </c>
+      <c r="E30">
+        <v>93.35600000000002</v>
+      </c>
+      <c r="F30">
+        <v>340.256</v>
+      </c>
+      <c r="G30">
+        <v>104.6</v>
+      </c>
+      <c r="H30">
+        <v>968.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>33.5</v>
+      </c>
+      <c r="K30">
+        <v>8.58</v>
+      </c>
+      <c r="L30">
+        <v>24.92</v>
+      </c>
+      <c r="M30">
+        <v>47.7038912</v>
+      </c>
+      <c r="N30">
+        <v>-22.7838912</v>
+      </c>
+      <c r="O30">
+        <v>-5.6959728</v>
+      </c>
+      <c r="P30">
+        <v>-17.0879184</v>
+      </c>
+      <c r="Q30">
+        <v>-8.507918399999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05502999461185387</v>
+      </c>
+      <c r="T30">
+        <v>0.8793299187850578</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0.1305973127827358</v>
+      </c>
+      <c r="W30">
+        <v>0.1218902567478604</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.5223892511309434</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07505986800993569</v>
+      </c>
+      <c r="C31">
+        <v>345.8219269680028</v>
+      </c>
+      <c r="D31">
+        <v>593.6299269680028</v>
+      </c>
+      <c r="E31">
+        <v>105.508</v>
+      </c>
+      <c r="F31">
+        <v>352.408</v>
+      </c>
+      <c r="G31">
+        <v>104.6</v>
+      </c>
+      <c r="H31">
+        <v>968.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>33.5</v>
+      </c>
+      <c r="K31">
+        <v>8.58</v>
+      </c>
+      <c r="L31">
+        <v>24.92</v>
+      </c>
+      <c r="M31">
+        <v>49.4076016</v>
+      </c>
+      <c r="N31">
+        <v>-24.4876016</v>
+      </c>
+      <c r="O31">
+        <v>-6.121900399999999</v>
+      </c>
+      <c r="P31">
+        <v>-18.3657012</v>
+      </c>
+      <c r="Q31">
+        <v>-9.785701199999997</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.05567407904300674</v>
+      </c>
+      <c r="T31">
+        <v>0.8917148472186501</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0.1260939571695381</v>
+      </c>
+      <c r="W31">
+        <v>0.1225216272048308</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.5043758286781523</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.08971479502473365</v>
+      </c>
+      <c r="C32">
+        <v>225.4858141957183</v>
+      </c>
+      <c r="D32">
+        <v>485.4458141957184</v>
+      </c>
+      <c r="E32">
+        <v>117.66</v>
+      </c>
+      <c r="F32">
+        <v>364.56</v>
+      </c>
+      <c r="G32">
+        <v>104.6</v>
+      </c>
+      <c r="H32">
+        <v>968.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>33.5</v>
+      </c>
+      <c r="K32">
+        <v>8.58</v>
+      </c>
+      <c r="L32">
+        <v>24.92</v>
+      </c>
+      <c r="M32">
+        <v>66.969672</v>
+      </c>
+      <c r="N32">
+        <v>-42.049672</v>
+      </c>
+      <c r="O32">
+        <v>-10.512418</v>
+      </c>
+      <c r="P32">
+        <v>-31.537254</v>
+      </c>
+      <c r="Q32">
+        <v>-22.957254</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.05675931876476104</v>
+      </c>
+      <c r="T32">
+        <v>0.9125826335477822</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.09302718400651566</v>
+      </c>
+      <c r="W32">
+        <v>0.1666109062980031</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.3721087360260626</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.09145879502473364</v>
+      </c>
+      <c r="C33">
+        <v>203.0291657438702</v>
+      </c>
+      <c r="D33">
+        <v>475.1411657438702</v>
+      </c>
+      <c r="E33">
+        <v>129.812</v>
+      </c>
+      <c r="F33">
+        <v>376.712</v>
+      </c>
+      <c r="G33">
+        <v>104.6</v>
+      </c>
+      <c r="H33">
+        <v>968.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>33.5</v>
+      </c>
+      <c r="K33">
+        <v>8.58</v>
+      </c>
+      <c r="L33">
+        <v>24.92</v>
+      </c>
+      <c r="M33">
+        <v>69.2019944</v>
+      </c>
+      <c r="N33">
+        <v>-44.2819944</v>
+      </c>
+      <c r="O33">
+        <v>-11.0704986</v>
+      </c>
+      <c r="P33">
+        <v>-33.2114958</v>
+      </c>
+      <c r="Q33">
+        <v>-24.6314958</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.05744713497874308</v>
+      </c>
+      <c r="T33">
+        <v>0.9258084688165906</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.09002630710307968</v>
+      </c>
+      <c r="W33">
+        <v>0.1671621673851643</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.3601052284123187</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.09320279502473365</v>
+      </c>
+      <c r="C34">
+        <v>181.0009012783892</v>
+      </c>
+      <c r="D34">
+        <v>465.2649012783892</v>
+      </c>
+      <c r="E34">
+        <v>141.964</v>
+      </c>
+      <c r="F34">
+        <v>388.864</v>
+      </c>
+      <c r="G34">
+        <v>104.6</v>
+      </c>
+      <c r="H34">
+        <v>968.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>33.5</v>
+      </c>
+      <c r="K34">
+        <v>8.58</v>
+      </c>
+      <c r="L34">
+        <v>24.92</v>
+      </c>
+      <c r="M34">
+        <v>71.4343168</v>
+      </c>
+      <c r="N34">
+        <v>-46.5143168</v>
+      </c>
+      <c r="O34">
+        <v>-11.6285792</v>
+      </c>
+      <c r="P34">
+        <v>-34.8857376</v>
+      </c>
+      <c r="Q34">
+        <v>-26.3057376</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.05815518108137166</v>
+      </c>
+      <c r="T34">
+        <v>0.9394232992403641</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.08721298500610844</v>
+      </c>
+      <c r="W34">
+        <v>0.1676789746543779</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.3488519400244338</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.09494679502473365</v>
+      </c>
+      <c r="C35">
+        <v>159.3748516353735</v>
+      </c>
+      <c r="D35">
+        <v>455.7908516353736</v>
+      </c>
+      <c r="E35">
+        <v>154.116</v>
+      </c>
+      <c r="F35">
+        <v>401.016</v>
+      </c>
+      <c r="G35">
+        <v>104.6</v>
+      </c>
+      <c r="H35">
+        <v>968.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>33.5</v>
+      </c>
+      <c r="K35">
+        <v>8.58</v>
+      </c>
+      <c r="L35">
+        <v>24.92</v>
+      </c>
+      <c r="M35">
+        <v>73.66663920000001</v>
+      </c>
+      <c r="N35">
+        <v>-48.7466392</v>
+      </c>
+      <c r="O35">
+        <v>-12.1866598</v>
+      </c>
+      <c r="P35">
+        <v>-36.5599794</v>
+      </c>
+      <c r="Q35">
+        <v>-27.9799794</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.05888436288855631</v>
+      </c>
+      <c r="T35">
+        <v>0.9534445425126082</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.0845701672786506</v>
+      </c>
+      <c r="W35">
+        <v>0.1681644602709119</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.3382806691146024</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.09669079502473366</v>
+      </c>
+      <c r="C36">
+        <v>138.1269366133495</v>
+      </c>
+      <c r="D36">
+        <v>446.6949366133496</v>
+      </c>
+      <c r="E36">
+        <v>166.2680000000001</v>
+      </c>
+      <c r="F36">
+        <v>413.1680000000001</v>
+      </c>
+      <c r="G36">
+        <v>104.6</v>
+      </c>
+      <c r="H36">
+        <v>968.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>33.5</v>
+      </c>
+      <c r="K36">
+        <v>8.58</v>
+      </c>
+      <c r="L36">
+        <v>24.92</v>
+      </c>
+      <c r="M36">
+        <v>75.89896160000001</v>
+      </c>
+      <c r="N36">
+        <v>-50.97896160000001</v>
+      </c>
+      <c r="O36">
+        <v>-12.7447404</v>
+      </c>
+      <c r="P36">
+        <v>-38.23422120000001</v>
+      </c>
+      <c r="Q36">
+        <v>-29.65422120000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.05963564111414051</v>
+      </c>
+      <c r="T36">
+        <v>0.9678906719446176</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.08208280941751382</v>
+      </c>
+      <c r="W36">
+        <v>0.1686213879100027</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.3283312376700552</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.09843479502473365</v>
+      </c>
+      <c r="C37">
+        <v>117.2349606114133</v>
+      </c>
+      <c r="D37">
+        <v>437.9549606114134</v>
+      </c>
+      <c r="E37">
+        <v>178.42</v>
+      </c>
+      <c r="F37">
+        <v>425.3200000000001</v>
+      </c>
+      <c r="G37">
+        <v>104.6</v>
+      </c>
+      <c r="H37">
+        <v>968.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>33.5</v>
+      </c>
+      <c r="K37">
+        <v>8.58</v>
+      </c>
+      <c r="L37">
+        <v>24.92</v>
+      </c>
+      <c r="M37">
+        <v>78.13128400000001</v>
+      </c>
+      <c r="N37">
+        <v>-53.21128400000001</v>
+      </c>
+      <c r="O37">
+        <v>-13.302821</v>
+      </c>
+      <c r="P37">
+        <v>-39.908463</v>
+      </c>
+      <c r="Q37">
+        <v>-31.32846300000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06041003559281959</v>
+      </c>
+      <c r="T37">
+        <v>0.9827812976668425</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.07973758629129914</v>
+      </c>
+      <c r="W37">
+        <v>0.1690522053982884</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3189503451651966</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1001787950247336</v>
+      </c>
+      <c r="C38">
+        <v>96.67843179808096</v>
+      </c>
+      <c r="D38">
+        <v>429.5504317980809</v>
+      </c>
+      <c r="E38">
+        <v>190.572</v>
+      </c>
+      <c r="F38">
+        <v>437.472</v>
+      </c>
+      <c r="G38">
+        <v>104.6</v>
+      </c>
+      <c r="H38">
+        <v>968.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>33.5</v>
+      </c>
+      <c r="K38">
+        <v>8.58</v>
+      </c>
+      <c r="L38">
+        <v>24.92</v>
+      </c>
+      <c r="M38">
+        <v>80.36360639999999</v>
+      </c>
+      <c r="N38">
+        <v>-55.44360639999999</v>
+      </c>
+      <c r="O38">
+        <v>-13.8609016</v>
+      </c>
+      <c r="P38">
+        <v>-41.58270479999999</v>
+      </c>
+      <c r="Q38">
+        <v>-33.0027048</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06120862989895738</v>
+      </c>
+      <c r="T38">
+        <v>0.9981372554428867</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.07752265333876307</v>
+      </c>
+      <c r="W38">
+        <v>0.1694590885816692</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3100906133550523</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1019227950247336</v>
+      </c>
+      <c r="C39">
+        <v>76.43840170942076</v>
+      </c>
+      <c r="D39">
+        <v>421.4624017094208</v>
+      </c>
+      <c r="E39">
+        <v>202.724</v>
+      </c>
+      <c r="F39">
+        <v>449.624</v>
+      </c>
+      <c r="G39">
+        <v>104.6</v>
+      </c>
+      <c r="H39">
+        <v>968.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>33.5</v>
+      </c>
+      <c r="K39">
+        <v>8.58</v>
+      </c>
+      <c r="L39">
+        <v>24.92</v>
+      </c>
+      <c r="M39">
+        <v>82.59592880000001</v>
+      </c>
+      <c r="N39">
+        <v>-57.67592880000001</v>
+      </c>
+      <c r="O39">
+        <v>-14.4189822</v>
+      </c>
+      <c r="P39">
+        <v>-43.25694660000001</v>
+      </c>
+      <c r="Q39">
+        <v>-34.67694660000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06203257640529004</v>
+      </c>
+      <c r="T39">
+        <v>1.01398070394198</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.07542744649176945</v>
+      </c>
+      <c r="W39">
+        <v>0.1698439780794619</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.3017097859670779</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1036667950247336</v>
+      </c>
+      <c r="C40">
+        <v>56.49732263358084</v>
+      </c>
+      <c r="D40">
+        <v>413.6733226335808</v>
+      </c>
+      <c r="E40">
+        <v>214.876</v>
+      </c>
+      <c r="F40">
+        <v>461.776</v>
+      </c>
+      <c r="G40">
+        <v>104.6</v>
+      </c>
+      <c r="H40">
+        <v>968.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>33.5</v>
+      </c>
+      <c r="K40">
+        <v>8.58</v>
+      </c>
+      <c r="L40">
+        <v>24.92</v>
+      </c>
+      <c r="M40">
+        <v>84.8282512</v>
+      </c>
+      <c r="N40">
+        <v>-59.9082512</v>
+      </c>
+      <c r="O40">
+        <v>-14.9770628</v>
+      </c>
+      <c r="P40">
+        <v>-44.9311884</v>
+      </c>
+      <c r="Q40">
+        <v>-36.3511884</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06288310183118181</v>
+      </c>
+      <c r="T40">
+        <v>1.030335231424915</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.07344251368935448</v>
+      </c>
+      <c r="W40">
+        <v>0.1702086102352656</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.2937700547574179</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1054107950247337</v>
+      </c>
+      <c r="C41">
+        <v>36.83892052248274</v>
+      </c>
+      <c r="D41">
+        <v>406.1669205224828</v>
+      </c>
+      <c r="E41">
+        <v>227.028</v>
+      </c>
+      <c r="F41">
+        <v>473.9280000000001</v>
+      </c>
+      <c r="G41">
+        <v>104.6</v>
+      </c>
+      <c r="H41">
+        <v>968.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>33.5</v>
+      </c>
+      <c r="K41">
+        <v>8.58</v>
+      </c>
+      <c r="L41">
+        <v>24.92</v>
+      </c>
+      <c r="M41">
+        <v>87.06057360000001</v>
+      </c>
+      <c r="N41">
+        <v>-62.14057360000001</v>
+      </c>
+      <c r="O41">
+        <v>-15.5351434</v>
+      </c>
+      <c r="P41">
+        <v>-46.60543020000001</v>
+      </c>
+      <c r="Q41">
+        <v>-38.02543020000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.06376151333661104</v>
+      </c>
+      <c r="T41">
+        <v>1.047225972923685</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.07155937231270436</v>
+      </c>
+      <c r="W41">
+        <v>0.1705545433061562</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2862374892508174</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1071547950247337</v>
+      </c>
+      <c r="C42">
+        <v>17.44808149357084</v>
+      </c>
+      <c r="D42">
+        <v>398.9280814935709</v>
+      </c>
+      <c r="E42">
+        <v>239.18</v>
+      </c>
+      <c r="F42">
+        <v>486.08</v>
+      </c>
+      <c r="G42">
+        <v>104.6</v>
+      </c>
+      <c r="H42">
+        <v>968.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>33.5</v>
+      </c>
+      <c r="K42">
+        <v>8.58</v>
+      </c>
+      <c r="L42">
+        <v>24.92</v>
+      </c>
+      <c r="M42">
+        <v>89.29289600000001</v>
+      </c>
+      <c r="N42">
+        <v>-64.37289600000001</v>
+      </c>
+      <c r="O42">
+        <v>-16.093224</v>
+      </c>
+      <c r="P42">
+        <v>-48.27967200000001</v>
+      </c>
+      <c r="Q42">
+        <v>-39.69967200000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.06466920522555455</v>
+      </c>
+      <c r="T42">
+        <v>1.064679739139079</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.06977038800488675</v>
+      </c>
+      <c r="W42">
+        <v>0.1708831797235023</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.279081552019547</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1088987950247337</v>
+      </c>
+      <c r="C43">
+        <v>-1.689249744141534</v>
+      </c>
+      <c r="D43">
+        <v>391.9427502558585</v>
+      </c>
+      <c r="E43">
+        <v>251.3320000000001</v>
+      </c>
+      <c r="F43">
+        <v>498.2320000000001</v>
+      </c>
+      <c r="G43">
+        <v>104.6</v>
+      </c>
+      <c r="H43">
+        <v>968.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>33.5</v>
+      </c>
+      <c r="K43">
+        <v>8.58</v>
+      </c>
+      <c r="L43">
+        <v>24.92</v>
+      </c>
+      <c r="M43">
+        <v>91.52521840000001</v>
+      </c>
+      <c r="N43">
+        <v>-66.60521840000001</v>
+      </c>
+      <c r="O43">
+        <v>-16.6513046</v>
+      </c>
+      <c r="P43">
+        <v>-49.95391380000001</v>
+      </c>
+      <c r="Q43">
+        <v>-41.37391380000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.06560766633107243</v>
+      </c>
+      <c r="T43">
+        <v>1.082725158446521</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.06806867122427974</v>
+      </c>
+      <c r="W43">
+        <v>0.1711957850960998</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.272274684897119</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1106427950247336</v>
+      </c>
+      <c r="C44">
+        <v>-20.58616097615743</v>
+      </c>
+      <c r="D44">
+        <v>385.1978390238426</v>
+      </c>
+      <c r="E44">
+        <v>263.484</v>
+      </c>
+      <c r="F44">
+        <v>510.384</v>
+      </c>
+      <c r="G44">
+        <v>104.6</v>
+      </c>
+      <c r="H44">
+        <v>968.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>33.5</v>
+      </c>
+      <c r="K44">
+        <v>8.58</v>
+      </c>
+      <c r="L44">
+        <v>24.92</v>
+      </c>
+      <c r="M44">
+        <v>93.7575408</v>
+      </c>
+      <c r="N44">
+        <v>-68.8375408</v>
+      </c>
+      <c r="O44">
+        <v>-17.2093852</v>
+      </c>
+      <c r="P44">
+        <v>-51.6281556</v>
+      </c>
+      <c r="Q44">
+        <v>-43.0481556</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.06657848816436676</v>
+      </c>
+      <c r="T44">
+        <v>1.101392833592151</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.06644798857608263</v>
+      </c>
+      <c r="W44">
+        <v>0.1714935044985736</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2657919543043304</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1123867950247337</v>
+      </c>
+      <c r="C45">
+        <v>-39.25485432273399</v>
+      </c>
+      <c r="D45">
+        <v>378.681145677266</v>
+      </c>
+      <c r="E45">
+        <v>275.6360000000001</v>
+      </c>
+      <c r="F45">
+        <v>522.5360000000001</v>
+      </c>
+      <c r="G45">
+        <v>104.6</v>
+      </c>
+      <c r="H45">
+        <v>968.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>33.5</v>
+      </c>
+      <c r="K45">
+        <v>8.58</v>
+      </c>
+      <c r="L45">
+        <v>24.92</v>
+      </c>
+      <c r="M45">
+        <v>95.98986320000002</v>
+      </c>
+      <c r="N45">
+        <v>-71.06986320000001</v>
+      </c>
+      <c r="O45">
+        <v>-17.7674658</v>
+      </c>
+      <c r="P45">
+        <v>-53.30239740000001</v>
+      </c>
+      <c r="Q45">
+        <v>-44.72239740000001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.06758337392163637</v>
+      </c>
+      <c r="T45">
+        <v>1.120715514883241</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.06490268651617372</v>
+      </c>
+      <c r="W45">
+        <v>0.1717773764869789</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2596107460646948</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1141307950247336</v>
+      </c>
+      <c r="C46">
+        <v>-57.70671990999131</v>
+      </c>
+      <c r="D46">
+        <v>372.3812800900087</v>
+      </c>
+      <c r="E46">
+        <v>287.788</v>
+      </c>
+      <c r="F46">
+        <v>534.688</v>
+      </c>
+      <c r="G46">
+        <v>104.6</v>
+      </c>
+      <c r="H46">
+        <v>968.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>33.5</v>
+      </c>
+      <c r="K46">
+        <v>8.58</v>
+      </c>
+      <c r="L46">
+        <v>24.92</v>
+      </c>
+      <c r="M46">
+        <v>98.2221856</v>
+      </c>
+      <c r="N46">
+        <v>-73.3021856</v>
+      </c>
+      <c r="O46">
+        <v>-18.3255464</v>
+      </c>
+      <c r="P46">
+        <v>-54.9766392</v>
+      </c>
+      <c r="Q46">
+        <v>-46.3966392</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.0686241484559513</v>
+      </c>
+      <c r="T46">
+        <v>1.140728291934728</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.06342762545898796</v>
+      </c>
+      <c r="W46">
+        <v>0.1720483452031839</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2537105018359518</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1158747950247336</v>
+      </c>
+      <c r="C47">
+        <v>-75.95240230765648</v>
+      </c>
+      <c r="D47">
+        <v>366.2875976923436</v>
+      </c>
+      <c r="E47">
+        <v>299.9400000000001</v>
+      </c>
+      <c r="F47">
+        <v>546.84</v>
+      </c>
+      <c r="G47">
+        <v>104.6</v>
+      </c>
+      <c r="H47">
+        <v>968.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>33.5</v>
+      </c>
+      <c r="K47">
+        <v>8.58</v>
+      </c>
+      <c r="L47">
+        <v>24.92</v>
+      </c>
+      <c r="M47">
+        <v>100.454508</v>
+      </c>
+      <c r="N47">
+        <v>-75.534508</v>
+      </c>
+      <c r="O47">
+        <v>-18.883627</v>
+      </c>
+      <c r="P47">
+        <v>-56.650881</v>
+      </c>
+      <c r="Q47">
+        <v>-48.070881</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.06970276933696859</v>
+      </c>
+      <c r="T47">
+        <v>1.161468806333541</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.06201812267101044</v>
+      </c>
+      <c r="W47">
+        <v>0.1723072708653354</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2480724906840418</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1176187950247337</v>
+      </c>
+      <c r="C48">
+        <v>-94.00186054867163</v>
+      </c>
+      <c r="D48">
+        <v>360.3901394513284</v>
+      </c>
+      <c r="E48">
+        <v>312.0920000000001</v>
+      </c>
+      <c r="F48">
+        <v>558.9920000000001</v>
+      </c>
+      <c r="G48">
+        <v>104.6</v>
+      </c>
+      <c r="H48">
+        <v>968.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>33.5</v>
+      </c>
+      <c r="K48">
+        <v>8.58</v>
+      </c>
+      <c r="L48">
+        <v>24.92</v>
+      </c>
+      <c r="M48">
+        <v>102.6868304</v>
+      </c>
+      <c r="N48">
+        <v>-77.76683040000002</v>
+      </c>
+      <c r="O48">
+        <v>-19.4417076</v>
+      </c>
+      <c r="P48">
+        <v>-58.32512280000002</v>
+      </c>
+      <c r="Q48">
+        <v>-49.74512280000002</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07082133913950506</v>
+      </c>
+      <c r="T48">
+        <v>1.18297748793231</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.06066990261294499</v>
+      </c>
+      <c r="W48">
+        <v>0.172554938890002</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.24267961045178</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1193627950247337</v>
+      </c>
+      <c r="C49">
+        <v>-111.8644224425601</v>
+      </c>
+      <c r="D49">
+        <v>354.6795775574399</v>
+      </c>
+      <c r="E49">
+        <v>324.244</v>
+      </c>
+      <c r="F49">
+        <v>571.144</v>
+      </c>
+      <c r="G49">
+        <v>104.6</v>
+      </c>
+      <c r="H49">
+        <v>968.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>33.5</v>
+      </c>
+      <c r="K49">
+        <v>8.58</v>
+      </c>
+      <c r="L49">
+        <v>24.92</v>
+      </c>
+      <c r="M49">
+        <v>104.9191528</v>
+      </c>
+      <c r="N49">
+        <v>-79.9991528</v>
+      </c>
+      <c r="O49">
+        <v>-19.9997882</v>
+      </c>
+      <c r="P49">
+        <v>-59.99936460000001</v>
+      </c>
+      <c r="Q49">
+        <v>-51.41936460000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07198211912326929</v>
+      </c>
+      <c r="T49">
+        <v>1.205297817893297</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.05937905362118021</v>
+      </c>
+      <c r="W49">
+        <v>0.1727920678497892</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2375162144847208</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1211067950247336</v>
+      </c>
+      <c r="C50">
+        <v>-129.5488338056024</v>
+      </c>
+      <c r="D50">
+        <v>349.1471661943976</v>
+      </c>
+      <c r="E50">
+        <v>336.3960000000001</v>
+      </c>
+      <c r="F50">
+        <v>583.296</v>
+      </c>
+      <c r="G50">
+        <v>104.6</v>
+      </c>
+      <c r="H50">
+        <v>968.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>33.5</v>
+      </c>
+      <c r="K50">
+        <v>8.58</v>
+      </c>
+      <c r="L50">
+        <v>24.92</v>
+      </c>
+      <c r="M50">
+        <v>107.1514752</v>
+      </c>
+      <c r="N50">
+        <v>-82.23147520000001</v>
+      </c>
+      <c r="O50">
+        <v>-20.5578688</v>
+      </c>
+      <c r="P50">
+        <v>-61.6736064</v>
+      </c>
+      <c r="Q50">
+        <v>-53.09360640000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.07318754449102448</v>
+      </c>
+      <c r="T50">
+        <v>1.228476622083553</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.05814199000407229</v>
+      </c>
+      <c r="W50">
+        <v>0.1730193164362519</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2325679600162892</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1228507950247336</v>
+      </c>
+      <c r="C51">
+        <v>-147.0633031543234</v>
+      </c>
+      <c r="D51">
+        <v>343.7846968456766</v>
+      </c>
+      <c r="E51">
+        <v>348.548</v>
+      </c>
+      <c r="F51">
+        <v>595.448</v>
+      </c>
+      <c r="G51">
+        <v>104.6</v>
+      </c>
+      <c r="H51">
+        <v>968.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>33.5</v>
+      </c>
+      <c r="K51">
+        <v>8.58</v>
+      </c>
+      <c r="L51">
+        <v>24.92</v>
+      </c>
+      <c r="M51">
+        <v>109.3837976</v>
+      </c>
+      <c r="N51">
+        <v>-84.46379759999999</v>
+      </c>
+      <c r="O51">
+        <v>-21.1159494</v>
+      </c>
+      <c r="P51">
+        <v>-63.34784819999999</v>
+      </c>
+      <c r="Q51">
+        <v>-54.7678482</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.07444024144182888</v>
+      </c>
+      <c r="T51">
+        <v>1.252564398987152</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.0569554187794994</v>
+      </c>
+      <c r="W51">
+        <v>0.173237289570206</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2278216751179976</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1245947950247336</v>
+      </c>
+      <c r="C52">
+        <v>-164.4155423426599</v>
+      </c>
+      <c r="D52">
+        <v>338.5844576573401</v>
+      </c>
+      <c r="E52">
+        <v>360.7</v>
+      </c>
+      <c r="F52">
+        <v>607.6</v>
+      </c>
+      <c r="G52">
+        <v>104.6</v>
+      </c>
+      <c r="H52">
+        <v>968.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>33.5</v>
+      </c>
+      <c r="K52">
+        <v>8.58</v>
+      </c>
+      <c r="L52">
+        <v>24.92</v>
+      </c>
+      <c r="M52">
+        <v>111.61612</v>
+      </c>
+      <c r="N52">
+        <v>-86.69612000000001</v>
+      </c>
+      <c r="O52">
+        <v>-21.67403</v>
+      </c>
+      <c r="P52">
+        <v>-65.02209000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-56.44209000000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.07574304627066546</v>
+      </c>
+      <c r="T52">
+        <v>1.277615686966895</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.0558163104039094</v>
+      </c>
+      <c r="W52">
+        <v>0.1734465437788018</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2232652416156375</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1263387950247337</v>
+      </c>
+      <c r="C53">
+        <v>-181.6128035659119</v>
+      </c>
+      <c r="D53">
+        <v>333.5391964340882</v>
+      </c>
+      <c r="E53">
+        <v>372.8520000000001</v>
+      </c>
+      <c r="F53">
+        <v>619.7520000000001</v>
+      </c>
+      <c r="G53">
+        <v>104.6</v>
+      </c>
+      <c r="H53">
+        <v>968.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>33.5</v>
+      </c>
+      <c r="K53">
+        <v>8.58</v>
+      </c>
+      <c r="L53">
+        <v>24.92</v>
+      </c>
+      <c r="M53">
+        <v>113.8484424</v>
+      </c>
+      <c r="N53">
+        <v>-88.92844240000001</v>
+      </c>
+      <c r="O53">
+        <v>-22.2321106</v>
+      </c>
+      <c r="P53">
+        <v>-66.69633180000001</v>
+      </c>
+      <c r="Q53">
+        <v>-58.11633180000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.07709902680680149</v>
+      </c>
+      <c r="T53">
+        <v>1.303689476496832</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.05472187294500921</v>
+      </c>
+      <c r="W53">
+        <v>0.1736475919400018</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2188874917800369</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1280827950247337</v>
+      </c>
+      <c r="C54">
+        <v>-198.661913104881</v>
+      </c>
+      <c r="D54">
+        <v>328.642086895119</v>
+      </c>
+      <c r="E54">
+        <v>385.004</v>
+      </c>
+      <c r="F54">
+        <v>631.904</v>
+      </c>
+      <c r="G54">
+        <v>104.6</v>
+      </c>
+      <c r="H54">
+        <v>968.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>33.5</v>
+      </c>
+      <c r="K54">
+        <v>8.58</v>
+      </c>
+      <c r="L54">
+        <v>24.92</v>
+      </c>
+      <c r="M54">
+        <v>116.0807648</v>
+      </c>
+      <c r="N54">
+        <v>-91.1607648</v>
+      </c>
+      <c r="O54">
+        <v>-22.7901912</v>
+      </c>
+      <c r="P54">
+        <v>-68.3705736</v>
+      </c>
+      <c r="Q54">
+        <v>-59.7905736</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.07851150653194321</v>
+      </c>
+      <c r="T54">
+        <v>1.330849673923849</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.05366952923452827</v>
+      </c>
+      <c r="W54">
+        <v>0.1738409074796172</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2146781169381131</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1298267950247337</v>
+      </c>
+      <c r="C55">
+        <v>-215.5693021403853</v>
+      </c>
+      <c r="D55">
+        <v>323.8866978596147</v>
+      </c>
+      <c r="E55">
+        <v>397.1560000000001</v>
+      </c>
+      <c r="F55">
+        <v>644.056</v>
+      </c>
+      <c r="G55">
+        <v>104.6</v>
+      </c>
+      <c r="H55">
+        <v>968.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>33.5</v>
+      </c>
+      <c r="K55">
+        <v>8.58</v>
+      </c>
+      <c r="L55">
+        <v>24.92</v>
+      </c>
+      <c r="M55">
+        <v>118.3130872</v>
+      </c>
+      <c r="N55">
+        <v>-93.39308720000001</v>
+      </c>
+      <c r="O55">
+        <v>-23.3482718</v>
+      </c>
+      <c r="P55">
+        <v>-70.0448154</v>
+      </c>
+      <c r="Q55">
+        <v>-61.46481540000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.07998409177730367</v>
+      </c>
+      <c r="T55">
+        <v>1.359165624432867</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.05265689660746169</v>
+      </c>
+      <c r="W55">
+        <v>0.1740269280932093</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2106275864298468</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1315707950247336</v>
+      </c>
+      <c r="C56">
+        <v>-232.3410349306473</v>
+      </c>
+      <c r="D56">
+        <v>319.2669650693528</v>
+      </c>
+      <c r="E56">
+        <v>409.3080000000001</v>
+      </c>
+      <c r="F56">
+        <v>656.2080000000001</v>
+      </c>
+      <c r="G56">
+        <v>104.6</v>
+      </c>
+      <c r="H56">
+        <v>968.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>33.5</v>
+      </c>
+      <c r="K56">
+        <v>8.58</v>
+      </c>
+      <c r="L56">
+        <v>24.92</v>
+      </c>
+      <c r="M56">
+        <v>120.5454096</v>
+      </c>
+      <c r="N56">
+        <v>-95.62540960000001</v>
+      </c>
+      <c r="O56">
+        <v>-23.9063524</v>
+      </c>
+      <c r="P56">
+        <v>-71.71905720000001</v>
+      </c>
+      <c r="Q56">
+        <v>-63.13905720000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.08152070246811462</v>
+      </c>
+      <c r="T56">
+        <v>1.388712703224886</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.0516817688925087</v>
+      </c>
+      <c r="W56">
+        <v>0.1742060590544461</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2067270755700348</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1333147950247336</v>
+      </c>
+      <c r="C57">
+        <v>-248.9828346111606</v>
+      </c>
+      <c r="D57">
+        <v>314.7771653888396</v>
+      </c>
+      <c r="E57">
+        <v>421.4600000000002</v>
+      </c>
+      <c r="F57">
+        <v>668.3600000000001</v>
+      </c>
+      <c r="G57">
+        <v>104.6</v>
+      </c>
+      <c r="H57">
+        <v>968.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>33.5</v>
+      </c>
+      <c r="K57">
+        <v>8.58</v>
+      </c>
+      <c r="L57">
+        <v>24.92</v>
+      </c>
+      <c r="M57">
+        <v>122.777732</v>
+      </c>
+      <c r="N57">
+        <v>-97.85773200000003</v>
+      </c>
+      <c r="O57">
+        <v>-24.46443300000001</v>
+      </c>
+      <c r="P57">
+        <v>-73.39329900000001</v>
+      </c>
+      <c r="Q57">
+        <v>-64.81329900000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.08312560696740606</v>
+      </c>
+      <c r="T57">
+        <v>1.419572985518772</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.05074210036719035</v>
+      </c>
+      <c r="W57">
+        <v>0.1743786761625471</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2029684014687614</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1350587950247336</v>
+      </c>
+      <c r="C58">
+        <v>-265.5001068478272</v>
+      </c>
+      <c r="D58">
+        <v>310.4118931521729</v>
+      </c>
+      <c r="E58">
+        <v>433.6120000000001</v>
+      </c>
+      <c r="F58">
+        <v>680.5120000000001</v>
+      </c>
+      <c r="G58">
+        <v>104.6</v>
+      </c>
+      <c r="H58">
+        <v>968.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>33.5</v>
+      </c>
+      <c r="K58">
+        <v>8.58</v>
+      </c>
+      <c r="L58">
+        <v>24.92</v>
+      </c>
+      <c r="M58">
+        <v>125.0100544</v>
+      </c>
+      <c r="N58">
+        <v>-100.0900544</v>
+      </c>
+      <c r="O58">
+        <v>-25.0225136</v>
+      </c>
+      <c r="P58">
+        <v>-75.06754080000002</v>
+      </c>
+      <c r="Q58">
+        <v>-66.48754080000002</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.08480346167121075</v>
+      </c>
+      <c r="T58">
+        <v>1.451836007916926</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.04983599143206196</v>
+      </c>
+      <c r="W58">
+        <v>0.1745451283739302</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1993439657282479</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1368027950247337</v>
+      </c>
+      <c r="C59">
+        <v>-281.8979615489135</v>
+      </c>
+      <c r="D59">
+        <v>306.1660384510866</v>
+      </c>
+      <c r="E59">
+        <v>445.7640000000001</v>
+      </c>
+      <c r="F59">
+        <v>692.6640000000001</v>
+      </c>
+      <c r="G59">
+        <v>104.6</v>
+      </c>
+      <c r="H59">
+        <v>968.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>33.5</v>
+      </c>
+      <c r="K59">
+        <v>8.58</v>
+      </c>
+      <c r="L59">
+        <v>24.92</v>
+      </c>
+      <c r="M59">
+        <v>127.2423768</v>
+      </c>
+      <c r="N59">
+        <v>-102.3223768</v>
+      </c>
+      <c r="O59">
+        <v>-25.5805942</v>
+      </c>
+      <c r="P59">
+        <v>-76.74178260000001</v>
+      </c>
+      <c r="Q59">
+        <v>-68.16178260000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.08655935612868078</v>
+      </c>
+      <c r="T59">
+        <v>1.485599636008018</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.04896167579290298</v>
+      </c>
+      <c r="W59">
+        <v>0.1747057401568437</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1958467031716119</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1385467950247336</v>
+      </c>
+      <c r="C60">
+        <v>-298.181232819172</v>
+      </c>
+      <c r="D60">
+        <v>302.034767180828</v>
+      </c>
+      <c r="E60">
+        <v>457.9160000000001</v>
+      </c>
+      <c r="F60">
+        <v>704.816</v>
+      </c>
+      <c r="G60">
+        <v>104.6</v>
+      </c>
+      <c r="H60">
+        <v>968.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>33.5</v>
+      </c>
+      <c r="K60">
+        <v>8.58</v>
+      </c>
+      <c r="L60">
+        <v>24.92</v>
+      </c>
+      <c r="M60">
+        <v>129.4746992</v>
+      </c>
+      <c r="N60">
+        <v>-104.5546992</v>
+      </c>
+      <c r="O60">
+        <v>-26.1386748</v>
+      </c>
+      <c r="P60">
+        <v>-78.4160244</v>
+      </c>
+      <c r="Q60">
+        <v>-69.8360244</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.08839886460793506</v>
+      </c>
+      <c r="T60">
+        <v>1.52097105591297</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.04811750896888742</v>
+      </c>
+      <c r="W60">
+        <v>0.1748608136024154</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1924700358755497</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1402907950247337</v>
+      </c>
+      <c r="C61">
+        <v>-314.354497319963</v>
+      </c>
+      <c r="D61">
+        <v>298.0135026800369</v>
+      </c>
+      <c r="E61">
+        <v>470.068</v>
+      </c>
+      <c r="F61">
+        <v>716.968</v>
+      </c>
+      <c r="G61">
+        <v>104.6</v>
+      </c>
+      <c r="H61">
+        <v>968.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>33.5</v>
+      </c>
+      <c r="K61">
+        <v>8.58</v>
+      </c>
+      <c r="L61">
+        <v>24.92</v>
+      </c>
+      <c r="M61">
+        <v>131.7070216</v>
+      </c>
+      <c r="N61">
+        <v>-106.7870216</v>
+      </c>
+      <c r="O61">
+        <v>-26.6967554</v>
+      </c>
+      <c r="P61">
+        <v>-80.09026619999999</v>
+      </c>
+      <c r="Q61">
+        <v>-71.51026619999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.0903281052081286</v>
+      </c>
+      <c r="T61">
+        <v>1.558067910935238</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.04730195796941476</v>
+      </c>
+      <c r="W61">
+        <v>0.1750106303210185</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.189207831877659</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1420347950247337</v>
+      </c>
+      <c r="C62">
+        <v>-330.422091181973</v>
+      </c>
+      <c r="D62">
+        <v>294.0979088180271</v>
+      </c>
+      <c r="E62">
+        <v>482.22</v>
+      </c>
+      <c r="F62">
+        <v>729.12</v>
+      </c>
+      <c r="G62">
+        <v>104.6</v>
+      </c>
+      <c r="H62">
+        <v>968.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>33.5</v>
+      </c>
+      <c r="K62">
+        <v>8.58</v>
+      </c>
+      <c r="L62">
+        <v>24.92</v>
+      </c>
+      <c r="M62">
+        <v>133.939344</v>
+      </c>
+      <c r="N62">
+        <v>-109.019344</v>
+      </c>
+      <c r="O62">
+        <v>-27.254836</v>
+      </c>
+      <c r="P62">
+        <v>-81.76450800000001</v>
+      </c>
+      <c r="Q62">
+        <v>-73.18450800000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.09235380783833182</v>
+      </c>
+      <c r="T62">
+        <v>1.597019608708619</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.04651359200325783</v>
+      </c>
+      <c r="W62">
+        <v>0.1751554531490015</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1860543680130313</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1437787950247336</v>
+      </c>
+      <c r="C63">
+        <v>-346.3881256019297</v>
+      </c>
+      <c r="D63">
+        <v>290.2838743980703</v>
+      </c>
+      <c r="E63">
+        <v>494.3720000000001</v>
+      </c>
+      <c r="F63">
+        <v>741.272</v>
+      </c>
+      <c r="G63">
+        <v>104.6</v>
+      </c>
+      <c r="H63">
+        <v>968.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>33.5</v>
+      </c>
+      <c r="K63">
+        <v>8.58</v>
+      </c>
+      <c r="L63">
+        <v>24.92</v>
+      </c>
+      <c r="M63">
+        <v>136.1716664</v>
+      </c>
+      <c r="N63">
+        <v>-111.2516664</v>
+      </c>
+      <c r="O63">
+        <v>-27.8129166</v>
+      </c>
+      <c r="P63">
+        <v>-83.43874980000001</v>
+      </c>
+      <c r="Q63">
+        <v>-74.85874980000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.09448339265469931</v>
+      </c>
+      <c r="T63">
+        <v>1.637968829444737</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.04575107410156508</v>
+      </c>
+      <c r="W63">
+        <v>0.1752955276875425</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1830042964062603</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1455227950247336</v>
+      </c>
+      <c r="C64">
+        <v>-362.2565012412513</v>
+      </c>
+      <c r="D64">
+        <v>286.5674987587487</v>
+      </c>
+      <c r="E64">
+        <v>506.524</v>
+      </c>
+      <c r="F64">
+        <v>753.424</v>
+      </c>
+      <c r="G64">
+        <v>104.6</v>
+      </c>
+      <c r="H64">
+        <v>968.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>33.5</v>
+      </c>
+      <c r="K64">
+        <v>8.58</v>
+      </c>
+      <c r="L64">
+        <v>24.92</v>
+      </c>
+      <c r="M64">
+        <v>138.4039888</v>
+      </c>
+      <c r="N64">
+        <v>-113.4839888</v>
+      </c>
+      <c r="O64">
+        <v>-28.3709972</v>
+      </c>
+      <c r="P64">
+        <v>-85.1129916</v>
+      </c>
+      <c r="Q64">
+        <v>-76.5329916</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.09672506088245454</v>
+      </c>
+      <c r="T64">
+        <v>1.681073272324862</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.04501315355153984</v>
+      </c>
+      <c r="W64">
+        <v>0.1754310836925821</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1800526142061594</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1472667950247336</v>
+      </c>
+      <c r="C65">
+        <v>-378.0309215326387</v>
+      </c>
+      <c r="D65">
+        <v>282.9450784673614</v>
+      </c>
+      <c r="E65">
+        <v>518.676</v>
+      </c>
+      <c r="F65">
+        <v>765.576</v>
+      </c>
+      <c r="G65">
+        <v>104.6</v>
+      </c>
+      <c r="H65">
+        <v>968.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>33.5</v>
+      </c>
+      <c r="K65">
+        <v>8.58</v>
+      </c>
+      <c r="L65">
+        <v>24.92</v>
+      </c>
+      <c r="M65">
+        <v>140.6363112</v>
+      </c>
+      <c r="N65">
+        <v>-115.7163112</v>
+      </c>
+      <c r="O65">
+        <v>-28.9290778</v>
+      </c>
+      <c r="P65">
+        <v>-86.78723339999999</v>
+      </c>
+      <c r="Q65">
+        <v>-78.20723339999999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.09908790036576413</v>
+      </c>
+      <c r="T65">
+        <v>1.726507685090399</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.04429865905072175</v>
+      </c>
+      <c r="W65">
+        <v>0.1755623363323824</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.177194636202887</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1490107950247337</v>
+      </c>
+      <c r="C66">
+        <v>-393.7149049900353</v>
+      </c>
+      <c r="D66">
+        <v>279.4130950099648</v>
+      </c>
+      <c r="E66">
+        <v>530.8280000000001</v>
+      </c>
+      <c r="F66">
+        <v>777.7280000000001</v>
+      </c>
+      <c r="G66">
+        <v>104.6</v>
+      </c>
+      <c r="H66">
+        <v>968.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>33.5</v>
+      </c>
+      <c r="K66">
+        <v>8.58</v>
+      </c>
+      <c r="L66">
+        <v>24.92</v>
+      </c>
+      <c r="M66">
+        <v>142.8686336</v>
+      </c>
+      <c r="N66">
+        <v>-117.9486336</v>
+      </c>
+      <c r="O66">
+        <v>-29.4871584</v>
+      </c>
+      <c r="P66">
+        <v>-88.46147520000001</v>
+      </c>
+      <c r="Q66">
+        <v>-79.88147520000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1015820087092576</v>
+      </c>
+      <c r="T66">
+        <v>1.774466231898466</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.04360649250305422</v>
+      </c>
+      <c r="W66">
+        <v>0.1756894873271889</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1744259700122168</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1507547950247337</v>
+      </c>
+      <c r="C67">
+        <v>-409.31179660797</v>
+      </c>
+      <c r="D67">
+        <v>275.9682033920301</v>
+      </c>
+      <c r="E67">
+        <v>542.9800000000001</v>
+      </c>
+      <c r="F67">
+        <v>789.8800000000001</v>
+      </c>
+      <c r="G67">
+        <v>104.6</v>
+      </c>
+      <c r="H67">
+        <v>968.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>33.5</v>
+      </c>
+      <c r="K67">
+        <v>8.58</v>
+      </c>
+      <c r="L67">
+        <v>24.92</v>
+      </c>
+      <c r="M67">
+        <v>145.100956</v>
+      </c>
+      <c r="N67">
+        <v>-120.180956</v>
+      </c>
+      <c r="O67">
+        <v>-30.04523900000001</v>
+      </c>
+      <c r="P67">
+        <v>-90.13571700000001</v>
+      </c>
+      <c r="Q67">
+        <v>-81.55571700000002</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1042186375295221</v>
+      </c>
+      <c r="T67">
+        <v>1.825165267095565</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.04293562338762261</v>
+      </c>
+      <c r="W67">
+        <v>0.1758127259836937</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1717424935504904</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1524987950247337</v>
+      </c>
+      <c r="C68">
+        <v>-424.8247784279117</v>
+      </c>
+      <c r="D68">
+        <v>272.6072215720883</v>
+      </c>
+      <c r="E68">
+        <v>555.1320000000001</v>
+      </c>
+      <c r="F68">
+        <v>802.032</v>
+      </c>
+      <c r="G68">
+        <v>104.6</v>
+      </c>
+      <c r="H68">
+        <v>968.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>33.5</v>
+      </c>
+      <c r="K68">
+        <v>8.58</v>
+      </c>
+      <c r="L68">
+        <v>24.92</v>
+      </c>
+      <c r="M68">
+        <v>147.3332784</v>
+      </c>
+      <c r="N68">
+        <v>-122.4132784</v>
+      </c>
+      <c r="O68">
+        <v>-30.6033196</v>
+      </c>
+      <c r="P68">
+        <v>-91.8099588</v>
+      </c>
+      <c r="Q68">
+        <v>-83.22995880000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1070103621627433</v>
+      </c>
+      <c r="T68">
+        <v>1.878846598480728</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0422850836393253</v>
+      </c>
+      <c r="W68">
+        <v>0.1759322301354559</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1691403345573013</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1542427950247337</v>
+      </c>
+      <c r="C69">
+        <v>-440.2568793417971</v>
+      </c>
+      <c r="D69">
+        <v>269.327120658203</v>
+      </c>
+      <c r="E69">
+        <v>567.2840000000001</v>
+      </c>
+      <c r="F69">
+        <v>814.1840000000001</v>
+      </c>
+      <c r="G69">
+        <v>104.6</v>
+      </c>
+      <c r="H69">
+        <v>968.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>33.5</v>
+      </c>
+      <c r="K69">
+        <v>8.58</v>
+      </c>
+      <c r="L69">
+        <v>24.92</v>
+      </c>
+      <c r="M69">
+        <v>149.5656008</v>
+      </c>
+      <c r="N69">
+        <v>-124.6456008</v>
+      </c>
+      <c r="O69">
+        <v>-31.16140020000001</v>
+      </c>
+      <c r="P69">
+        <v>-93.48420060000002</v>
+      </c>
+      <c r="Q69">
+        <v>-84.90420060000002</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.109971282228281</v>
+      </c>
+      <c r="T69">
+        <v>1.935781343889236</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.04165396298799209</v>
+      </c>
+      <c r="W69">
+        <v>0.1760481669991059</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1666158519519684</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1559867950247337</v>
+      </c>
+      <c r="C70">
+        <v>-455.6109841962165</v>
+      </c>
+      <c r="D70">
+        <v>266.1250158037836</v>
+      </c>
+      <c r="E70">
+        <v>579.4360000000001</v>
+      </c>
+      <c r="F70">
+        <v>826.3360000000001</v>
+      </c>
+      <c r="G70">
+        <v>104.6</v>
+      </c>
+      <c r="H70">
+        <v>968.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>33.5</v>
+      </c>
+      <c r="K70">
+        <v>8.58</v>
+      </c>
+      <c r="L70">
+        <v>24.92</v>
+      </c>
+      <c r="M70">
+        <v>151.7979232</v>
+      </c>
+      <c r="N70">
+        <v>-126.8779232</v>
+      </c>
+      <c r="O70">
+        <v>-31.7194808</v>
+      </c>
+      <c r="P70">
+        <v>-95.15844240000001</v>
+      </c>
+      <c r="Q70">
+        <v>-86.57844240000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1131172597979148</v>
+      </c>
+      <c r="T70">
+        <v>1.996274510885774</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.04104140470875691</v>
+      </c>
+      <c r="W70">
+        <v>0.1761606939550014</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1641656188350277</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1577307950247336</v>
+      </c>
+      <c r="C71">
+        <v>-470.889842254778</v>
+      </c>
+      <c r="D71">
+        <v>262.998157745222</v>
+      </c>
+      <c r="E71">
+        <v>591.5880000000001</v>
+      </c>
+      <c r="F71">
+        <v>838.4880000000001</v>
+      </c>
+      <c r="G71">
+        <v>104.6</v>
+      </c>
+      <c r="H71">
+        <v>968.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>33.5</v>
+      </c>
+      <c r="K71">
+        <v>8.58</v>
+      </c>
+      <c r="L71">
+        <v>24.92</v>
+      </c>
+      <c r="M71">
+        <v>154.0302456</v>
+      </c>
+      <c r="N71">
+        <v>-129.1102456</v>
+      </c>
+      <c r="O71">
+        <v>-32.2775614</v>
+      </c>
+      <c r="P71">
+        <v>-96.83268419999999</v>
+      </c>
+      <c r="Q71">
+        <v>-88.25268419999999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1164662036623637</v>
+      </c>
+      <c r="T71">
+        <v>2.060670462849831</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.04044660174196334</v>
+      </c>
+      <c r="W71">
+        <v>0.1762699592600013</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1617864069678534</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1594747950247337</v>
+      </c>
+      <c r="C72">
+        <v>-486.096075070825</v>
+      </c>
+      <c r="D72">
+        <v>259.9439249291751</v>
+      </c>
+      <c r="E72">
+        <v>603.7400000000001</v>
+      </c>
+      <c r="F72">
+        <v>850.6400000000001</v>
+      </c>
+      <c r="G72">
+        <v>104.6</v>
+      </c>
+      <c r="H72">
+        <v>968.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>8.58</v>
+      </c>
+      <c r="L72">
+        <v>24.92</v>
+      </c>
+      <c r="M72">
+        <v>156.262568</v>
+      </c>
+      <c r="N72">
+        <v>-131.342568</v>
+      </c>
+      <c r="O72">
+        <v>-32.83564200000001</v>
+      </c>
+      <c r="P72">
+        <v>-98.50692600000002</v>
+      </c>
+      <c r="Q72">
+        <v>-89.92692600000002</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1200384104511091</v>
+      </c>
+      <c r="T72">
+        <v>2.129359478278159</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.03986879314564957</v>
+      </c>
+      <c r="W72">
+        <v>0.1763761026991442</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1594751725825981</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1612187950247336</v>
+      </c>
+      <c r="C73">
+        <v>-501.2321838178872</v>
+      </c>
+      <c r="D73">
+        <v>256.9598161821128</v>
+      </c>
+      <c r="E73">
+        <v>615.8920000000001</v>
+      </c>
+      <c r="F73">
+        <v>862.792</v>
+      </c>
+      <c r="G73">
+        <v>104.6</v>
+      </c>
+      <c r="H73">
+        <v>968.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>33.5</v>
+      </c>
+      <c r="K73">
+        <v>8.58</v>
+      </c>
+      <c r="L73">
+        <v>24.92</v>
+      </c>
+      <c r="M73">
+        <v>158.4948904</v>
+      </c>
+      <c r="N73">
+        <v>-133.5748904</v>
+      </c>
+      <c r="O73">
+        <v>-33.3937226</v>
+      </c>
+      <c r="P73">
+        <v>-100.1811678</v>
+      </c>
+      <c r="Q73">
+        <v>-91.60116780000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1238569763287335</v>
+      </c>
+      <c r="T73">
+        <v>2.202785667184302</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.03930726084782352</v>
+      </c>
+      <c r="W73">
+        <v>0.1764792561822548</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.157229043391294</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1629627950247337</v>
+      </c>
+      <c r="C74">
+        <v>-516.3005561209516</v>
+      </c>
+      <c r="D74">
+        <v>254.0434438790483</v>
+      </c>
+      <c r="E74">
+        <v>628.044</v>
+      </c>
+      <c r="F74">
+        <v>874.944</v>
+      </c>
+      <c r="G74">
+        <v>104.6</v>
+      </c>
+      <c r="H74">
+        <v>968.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>33.5</v>
+      </c>
+      <c r="K74">
+        <v>8.58</v>
+      </c>
+      <c r="L74">
+        <v>24.92</v>
+      </c>
+      <c r="M74">
+        <v>160.7272128</v>
+      </c>
+      <c r="N74">
+        <v>-135.8072128</v>
+      </c>
+      <c r="O74">
+        <v>-33.9518032</v>
+      </c>
+      <c r="P74">
+        <v>-101.8554096</v>
+      </c>
+      <c r="Q74">
+        <v>-93.2754096</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1279482969119026</v>
+      </c>
+      <c r="T74">
+        <v>2.281456583869455</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.03876132666938154</v>
+      </c>
+      <c r="W74">
+        <v>0.1765795442908346</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.155045306677526</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1647067950247336</v>
+      </c>
+      <c r="C75">
+        <v>-531.3034724277614</v>
+      </c>
+      <c r="D75">
+        <v>251.1925275722386</v>
+      </c>
+      <c r="E75">
+        <v>640.196</v>
+      </c>
+      <c r="F75">
+        <v>887.096</v>
+      </c>
+      <c r="G75">
+        <v>104.6</v>
+      </c>
+      <c r="H75">
+        <v>968.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>33.5</v>
+      </c>
+      <c r="K75">
+        <v>8.58</v>
+      </c>
+      <c r="L75">
+        <v>24.92</v>
+      </c>
+      <c r="M75">
+        <v>162.9595352</v>
+      </c>
+      <c r="N75">
+        <v>-138.0395352</v>
+      </c>
+      <c r="O75">
+        <v>-34.5098838</v>
+      </c>
+      <c r="P75">
+        <v>-103.5296514</v>
+      </c>
+      <c r="Q75">
+        <v>-94.94965139999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1323426782790101</v>
+      </c>
+      <c r="T75">
+        <v>2.365954975864621</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.03823034959171877</v>
+      </c>
+      <c r="W75">
+        <v>0.1766770847800013</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1529213983668751</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1664507950247336</v>
+      </c>
+      <c r="C76">
+        <v>-546.2431119558787</v>
+      </c>
+      <c r="D76">
+        <v>248.4048880441214</v>
+      </c>
+      <c r="E76">
+        <v>652.3480000000001</v>
+      </c>
+      <c r="F76">
+        <v>899.248</v>
+      </c>
+      <c r="G76">
+        <v>104.6</v>
+      </c>
+      <c r="H76">
+        <v>968.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>33.5</v>
+      </c>
+      <c r="K76">
+        <v>8.58</v>
+      </c>
+      <c r="L76">
+        <v>24.92</v>
+      </c>
+      <c r="M76">
+        <v>165.1918576</v>
+      </c>
+      <c r="N76">
+        <v>-140.2718576</v>
+      </c>
+      <c r="O76">
+        <v>-35.06796440000001</v>
+      </c>
+      <c r="P76">
+        <v>-105.2038932</v>
+      </c>
+      <c r="Q76">
+        <v>-96.62389320000003</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.137075088982049</v>
+      </c>
+      <c r="T76">
+        <v>2.456953244167106</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.03771372324588473</v>
+      </c>
+      <c r="W76">
+        <v>0.176771989039731</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1508548929835388</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1681947950247337</v>
+      </c>
+      <c r="C77">
+        <v>-561.1215582481032</v>
+      </c>
+      <c r="D77">
+        <v>245.6784417518969</v>
+      </c>
+      <c r="E77">
+        <v>664.5000000000001</v>
+      </c>
+      <c r="F77">
+        <v>911.4000000000001</v>
+      </c>
+      <c r="G77">
+        <v>104.6</v>
+      </c>
+      <c r="H77">
+        <v>968.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>33.5</v>
+      </c>
+      <c r="K77">
+        <v>8.58</v>
+      </c>
+      <c r="L77">
+        <v>24.92</v>
+      </c>
+      <c r="M77">
+        <v>167.42418</v>
+      </c>
+      <c r="N77">
+        <v>-142.50418</v>
+      </c>
+      <c r="O77">
+        <v>-35.626045</v>
+      </c>
+      <c r="P77">
+        <v>-106.878135</v>
+      </c>
+      <c r="Q77">
+        <v>-98.29813500000002</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1421860925413309</v>
+      </c>
+      <c r="T77">
+        <v>2.55523137393379</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.03721087360260627</v>
+      </c>
+      <c r="W77">
+        <v>0.1768643625192012</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.148843494410425</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1699387950247337</v>
+      </c>
+      <c r="C78">
+        <v>-575.9408043660121</v>
+      </c>
+      <c r="D78">
+        <v>243.0111956339879</v>
+      </c>
+      <c r="E78">
+        <v>676.652</v>
+      </c>
+      <c r="F78">
+        <v>923.552</v>
+      </c>
+      <c r="G78">
+        <v>104.6</v>
+      </c>
+      <c r="H78">
+        <v>968.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>33.5</v>
+      </c>
+      <c r="K78">
+        <v>8.58</v>
+      </c>
+      <c r="L78">
+        <v>24.92</v>
+      </c>
+      <c r="M78">
+        <v>169.6565024</v>
+      </c>
+      <c r="N78">
+        <v>-144.7365024</v>
+      </c>
+      <c r="O78">
+        <v>-36.1841256</v>
+      </c>
+      <c r="P78">
+        <v>-108.5523768</v>
+      </c>
+      <c r="Q78">
+        <v>-99.97237680000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1477230130638864</v>
+      </c>
+      <c r="T78">
+        <v>2.661699347847699</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.03672125684467724</v>
+      </c>
+      <c r="W78">
+        <v>0.1769543051176328</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1468850273787089</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1716827950247337</v>
+      </c>
+      <c r="C79">
+        <v>-590.7027577488268</v>
+      </c>
+      <c r="D79">
+        <v>240.4012422511733</v>
+      </c>
+      <c r="E79">
+        <v>688.8040000000001</v>
+      </c>
+      <c r="F79">
+        <v>935.7040000000001</v>
+      </c>
+      <c r="G79">
+        <v>104.6</v>
+      </c>
+      <c r="H79">
+        <v>968.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>33.5</v>
+      </c>
+      <c r="K79">
+        <v>8.58</v>
+      </c>
+      <c r="L79">
+        <v>24.92</v>
+      </c>
+      <c r="M79">
+        <v>171.8888248</v>
+      </c>
+      <c r="N79">
+        <v>-146.9688248</v>
+      </c>
+      <c r="O79">
+        <v>-36.7422062</v>
+      </c>
+      <c r="P79">
+        <v>-110.2266186</v>
+      </c>
+      <c r="Q79">
+        <v>-101.6466186</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1537414049362293</v>
+      </c>
+      <c r="T79">
+        <v>2.777425406449772</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.03624435740513597</v>
+      </c>
+      <c r="W79">
+        <v>0.1770419115446765</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1449774296205439</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1734267950247336</v>
+      </c>
+      <c r="C80">
+        <v>-605.4092447624972</v>
+      </c>
+      <c r="D80">
+        <v>237.8467552375029</v>
+      </c>
+      <c r="E80">
+        <v>700.9560000000001</v>
+      </c>
+      <c r="F80">
+        <v>947.8560000000001</v>
+      </c>
+      <c r="G80">
+        <v>104.6</v>
+      </c>
+      <c r="H80">
+        <v>968.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>33.5</v>
+      </c>
+      <c r="K80">
+        <v>8.58</v>
+      </c>
+      <c r="L80">
+        <v>24.92</v>
+      </c>
+      <c r="M80">
+        <v>174.1211472</v>
+      </c>
+      <c r="N80">
+        <v>-149.2011472</v>
+      </c>
+      <c r="O80">
+        <v>-37.30028680000001</v>
+      </c>
+      <c r="P80">
+        <v>-111.9008604</v>
+      </c>
+      <c r="Q80">
+        <v>-103.3208604</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1603069233424215</v>
+      </c>
+      <c r="T80">
+        <v>2.903672015833853</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.03577968615635218</v>
+      </c>
+      <c r="W80">
+        <v>0.1771272716530781</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1431187446254086</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1751707950247336</v>
+      </c>
+      <c r="C81">
+        <v>-620.0620149618101</v>
+      </c>
+      <c r="D81">
+        <v>235.3459850381899</v>
+      </c>
+      <c r="E81">
+        <v>713.1080000000001</v>
+      </c>
+      <c r="F81">
+        <v>960.008</v>
+      </c>
+      <c r="G81">
+        <v>104.6</v>
+      </c>
+      <c r="H81">
+        <v>968.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>33.5</v>
+      </c>
+      <c r="K81">
+        <v>8.58</v>
+      </c>
+      <c r="L81">
+        <v>24.92</v>
+      </c>
+      <c r="M81">
+        <v>176.3534696</v>
+      </c>
+      <c r="N81">
+        <v>-151.4334696</v>
+      </c>
+      <c r="O81">
+        <v>-37.85836740000001</v>
+      </c>
+      <c r="P81">
+        <v>-113.5751022</v>
+      </c>
+      <c r="Q81">
+        <v>-104.9951022</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1674977292158702</v>
+      </c>
+      <c r="T81">
+        <v>3.041942111825942</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.03532677873665152</v>
+      </c>
+      <c r="W81">
+        <v>0.1772104707460771</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.141307114946606</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1769147950247336</v>
+      </c>
+      <c r="C82">
+        <v>-634.6627450864155</v>
+      </c>
+      <c r="D82">
+        <v>232.8972549135846</v>
+      </c>
+      <c r="E82">
+        <v>725.2600000000001</v>
+      </c>
+      <c r="F82">
+        <v>972.1600000000001</v>
+      </c>
+      <c r="G82">
+        <v>104.6</v>
+      </c>
+      <c r="H82">
+        <v>968.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>33.5</v>
+      </c>
+      <c r="K82">
+        <v>8.58</v>
+      </c>
+      <c r="L82">
+        <v>24.92</v>
+      </c>
+      <c r="M82">
+        <v>178.585792</v>
+      </c>
+      <c r="N82">
+        <v>-153.665792</v>
+      </c>
+      <c r="O82">
+        <v>-38.416448</v>
+      </c>
+      <c r="P82">
+        <v>-115.249344</v>
+      </c>
+      <c r="Q82">
+        <v>-106.669344</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1754076156766637</v>
+      </c>
+      <c r="T82">
+        <v>3.194039217417239</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.03488519400244337</v>
+      </c>
+      <c r="W82">
+        <v>0.1772915898617511</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1395407760097735</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1786587950247337</v>
+      </c>
+      <c r="C83">
+        <v>-649.2130428099556</v>
+      </c>
+      <c r="D83">
+        <v>230.4989571900446</v>
+      </c>
+      <c r="E83">
+        <v>737.4120000000001</v>
+      </c>
+      <c r="F83">
+        <v>984.3120000000001</v>
+      </c>
+      <c r="G83">
+        <v>104.6</v>
+      </c>
+      <c r="H83">
+        <v>968.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>33.5</v>
+      </c>
+      <c r="K83">
+        <v>8.58</v>
+      </c>
+      <c r="L83">
+        <v>24.92</v>
+      </c>
+      <c r="M83">
+        <v>180.8181144</v>
+      </c>
+      <c r="N83">
+        <v>-155.8981144</v>
+      </c>
+      <c r="O83">
+        <v>-38.9745286</v>
+      </c>
+      <c r="P83">
+        <v>-116.9235858</v>
+      </c>
+      <c r="Q83">
+        <v>-108.3435858</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1841501217649091</v>
+      </c>
+      <c r="T83">
+        <v>3.362146544649725</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.0344545125950058</v>
+      </c>
+      <c r="W83">
+        <v>0.1773707060362975</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1378180503800233</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1804027950247337</v>
+      </c>
+      <c r="C84">
+        <v>-663.7144502599118</v>
+      </c>
+      <c r="D84">
+        <v>228.1495497400884</v>
+      </c>
+      <c r="E84">
+        <v>749.5640000000002</v>
+      </c>
+      <c r="F84">
+        <v>996.4640000000002</v>
+      </c>
+      <c r="G84">
+        <v>104.6</v>
+      </c>
+      <c r="H84">
+        <v>968.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>33.5</v>
+      </c>
+      <c r="K84">
+        <v>8.58</v>
+      </c>
+      <c r="L84">
+        <v>24.92</v>
+      </c>
+      <c r="M84">
+        <v>183.0504368</v>
+      </c>
+      <c r="N84">
+        <v>-158.1304368</v>
+      </c>
+      <c r="O84">
+        <v>-39.53260920000001</v>
+      </c>
+      <c r="P84">
+        <v>-118.5978276</v>
+      </c>
+      <c r="Q84">
+        <v>-110.0178276</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.1938640174185152</v>
+      </c>
+      <c r="T84">
+        <v>3.548932463796932</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03403433561213987</v>
+      </c>
+      <c r="W84">
+        <v>0.1774478925480499</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1361373424485595</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1821467950247337</v>
+      </c>
+      <c r="C85">
+        <v>-678.1684473243629</v>
+      </c>
+      <c r="D85">
+        <v>225.8475526756373</v>
+      </c>
+      <c r="E85">
+        <v>761.7160000000001</v>
+      </c>
+      <c r="F85">
+        <v>1008.616</v>
+      </c>
+      <c r="G85">
+        <v>104.6</v>
+      </c>
+      <c r="H85">
+        <v>968.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>33.5</v>
+      </c>
+      <c r="K85">
+        <v>8.58</v>
+      </c>
+      <c r="L85">
+        <v>24.92</v>
+      </c>
+      <c r="M85">
+        <v>185.2827592</v>
+      </c>
+      <c r="N85">
+        <v>-160.3627592</v>
+      </c>
+      <c r="O85">
+        <v>-40.09068980000001</v>
+      </c>
+      <c r="P85">
+        <v>-120.2720694</v>
+      </c>
+      <c r="Q85">
+        <v>-111.6920694</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2047207243254867</v>
+      </c>
+      <c r="T85">
+        <v>3.757693196961458</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03362428337584904</v>
+      </c>
+      <c r="W85">
+        <v>0.1775232191438565</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1344971335033961</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1838907950247337</v>
+      </c>
+      <c r="C86">
+        <v>-692.5764547605537</v>
+      </c>
+      <c r="D86">
+        <v>223.5915452394463</v>
+      </c>
+      <c r="E86">
+        <v>773.8680000000001</v>
+      </c>
+      <c r="F86">
+        <v>1020.768</v>
+      </c>
+      <c r="G86">
+        <v>104.6</v>
+      </c>
+      <c r="H86">
+        <v>968.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>33.5</v>
+      </c>
+      <c r="K86">
+        <v>8.58</v>
+      </c>
+      <c r="L86">
+        <v>24.92</v>
+      </c>
+      <c r="M86">
+        <v>187.5150816</v>
+      </c>
+      <c r="N86">
+        <v>-162.5950816</v>
+      </c>
+      <c r="O86">
+        <v>-40.6487704</v>
+      </c>
+      <c r="P86">
+        <v>-121.9463112</v>
+      </c>
+      <c r="Q86">
+        <v>-113.3663112</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2169345195958295</v>
+      </c>
+      <c r="T86">
+        <v>3.992549021771547</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.03322399428804131</v>
+      </c>
+      <c r="W86">
+        <v>0.1775967522492868</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1328959771521652</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1856347950247337</v>
+      </c>
+      <c r="C87">
+        <v>-706.9398371189982</v>
+      </c>
+      <c r="D87">
+        <v>221.380162881002</v>
+      </c>
+      <c r="E87">
+        <v>786.0200000000001</v>
+      </c>
+      <c r="F87">
+        <v>1032.92</v>
+      </c>
+      <c r="G87">
+        <v>104.6</v>
+      </c>
+      <c r="H87">
+        <v>968.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>33.5</v>
+      </c>
+      <c r="K87">
+        <v>8.58</v>
+      </c>
+      <c r="L87">
+        <v>24.92</v>
+      </c>
+      <c r="M87">
+        <v>189.747404</v>
+      </c>
+      <c r="N87">
+        <v>-164.827404</v>
+      </c>
+      <c r="O87">
+        <v>-41.206851</v>
+      </c>
+      <c r="P87">
+        <v>-123.620553</v>
+      </c>
+      <c r="Q87">
+        <v>-115.040553</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2307768209022182</v>
+      </c>
+      <c r="T87">
+        <v>4.258718956556317</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.03283312376700553</v>
+      </c>
+      <c r="W87">
+        <v>0.1776685551640011</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1313324950680221</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1873787950247336</v>
+      </c>
+      <c r="C88">
+        <v>-721.259905495757</v>
+      </c>
+      <c r="D88">
+        <v>219.212094504243</v>
+      </c>
+      <c r="E88">
+        <v>798.1720000000001</v>
+      </c>
+      <c r="F88">
+        <v>1045.072</v>
+      </c>
+      <c r="G88">
+        <v>104.6</v>
+      </c>
+      <c r="H88">
+        <v>968.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>33.5</v>
+      </c>
+      <c r="K88">
+        <v>8.58</v>
+      </c>
+      <c r="L88">
+        <v>24.92</v>
+      </c>
+      <c r="M88">
+        <v>191.9797264</v>
+      </c>
+      <c r="N88">
+        <v>-167.0597264</v>
+      </c>
+      <c r="O88">
+        <v>-41.76493160000001</v>
+      </c>
+      <c r="P88">
+        <v>-125.2947948</v>
+      </c>
+      <c r="Q88">
+        <v>-116.7147948</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2465965938238052</v>
+      </c>
+      <c r="T88">
+        <v>4.562913167738911</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.03245134325808686</v>
+      </c>
+      <c r="W88">
+        <v>0.1777386882434895</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1298053730323474</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1891227950247336</v>
+      </c>
+      <c r="C89">
+        <v>-735.5379201245631</v>
+      </c>
+      <c r="D89">
+        <v>217.0860798754368</v>
+      </c>
+      <c r="E89">
+        <v>810.324</v>
+      </c>
+      <c r="F89">
+        <v>1057.224</v>
+      </c>
+      <c r="G89">
+        <v>104.6</v>
+      </c>
+      <c r="H89">
+        <v>968.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>33.5</v>
+      </c>
+      <c r="K89">
+        <v>8.58</v>
+      </c>
+      <c r="L89">
+        <v>24.92</v>
+      </c>
+      <c r="M89">
+        <v>194.2120488</v>
+      </c>
+      <c r="N89">
+        <v>-169.2920488</v>
+      </c>
+      <c r="O89">
+        <v>-42.32301219999999</v>
+      </c>
+      <c r="P89">
+        <v>-126.9690366</v>
+      </c>
+      <c r="Q89">
+        <v>-118.3890366</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2648501779640978</v>
+      </c>
+      <c r="T89">
+        <v>4.913906488334211</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.03207833931259161</v>
+      </c>
+      <c r="W89">
+        <v>0.1778072090682769</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1283133572503665</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1908667950247336</v>
+      </c>
+      <c r="C90">
+        <v>-749.7750928195551</v>
+      </c>
+      <c r="D90">
+        <v>215.000907180445</v>
+      </c>
+      <c r="E90">
+        <v>822.476</v>
+      </c>
+      <c r="F90">
+        <v>1069.376</v>
+      </c>
+      <c r="G90">
+        <v>104.6</v>
+      </c>
+      <c r="H90">
+        <v>968.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>33.5</v>
+      </c>
+      <c r="K90">
+        <v>8.58</v>
+      </c>
+      <c r="L90">
+        <v>24.92</v>
+      </c>
+      <c r="M90">
+        <v>196.4443712</v>
+      </c>
+      <c r="N90">
+        <v>-171.5243712</v>
+      </c>
+      <c r="O90">
+        <v>-42.8810928</v>
+      </c>
+      <c r="P90">
+        <v>-128.6432784</v>
+      </c>
+      <c r="Q90">
+        <v>-120.0632784</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2861460261277727</v>
+      </c>
+      <c r="T90">
+        <v>5.323398695695396</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.03171381272949398</v>
+      </c>
+      <c r="W90">
+        <v>0.1778741726015919</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1268552509179759</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1926107950247336</v>
+      </c>
+      <c r="C91">
+        <v>-763.9725892785722</v>
+      </c>
+      <c r="D91">
+        <v>212.9554107214279</v>
+      </c>
+      <c r="E91">
+        <v>834.628</v>
+      </c>
+      <c r="F91">
+        <v>1081.528</v>
+      </c>
+      <c r="G91">
+        <v>104.6</v>
+      </c>
+      <c r="H91">
+        <v>968.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>33.5</v>
+      </c>
+      <c r="K91">
+        <v>8.58</v>
+      </c>
+      <c r="L91">
+        <v>24.92</v>
+      </c>
+      <c r="M91">
+        <v>198.6766936</v>
+      </c>
+      <c r="N91">
+        <v>-173.7566936</v>
+      </c>
+      <c r="O91">
+        <v>-43.4391734</v>
+      </c>
+      <c r="P91">
+        <v>-130.3175202</v>
+      </c>
+      <c r="Q91">
+        <v>-121.7375202</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.311313846684843</v>
+      </c>
+      <c r="T91">
+        <v>5.807344031667705</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.03135747775500528</v>
+      </c>
+      <c r="W91">
+        <v>0.1779396313364055</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1254299110200211</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1943547950247337</v>
+      </c>
+      <c r="C92">
+        <v>-778.1315312562094</v>
+      </c>
+      <c r="D92">
+        <v>210.9484687437907</v>
+      </c>
+      <c r="E92">
+        <v>846.7800000000001</v>
+      </c>
+      <c r="F92">
+        <v>1093.68</v>
+      </c>
+      <c r="G92">
+        <v>104.6</v>
+      </c>
+      <c r="H92">
+        <v>968.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>33.5</v>
+      </c>
+      <c r="K92">
+        <v>8.58</v>
+      </c>
+      <c r="L92">
+        <v>24.92</v>
+      </c>
+      <c r="M92">
+        <v>200.909016</v>
+      </c>
+      <c r="N92">
+        <v>-175.989016</v>
+      </c>
+      <c r="O92">
+        <v>-43.997254</v>
+      </c>
+      <c r="P92">
+        <v>-131.991762</v>
+      </c>
+      <c r="Q92">
+        <v>-123.411762</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3415152313533273</v>
+      </c>
+      <c r="T92">
+        <v>6.388078434834477</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.03100906133550522</v>
+      </c>
+      <c r="W92">
+        <v>0.1780036354326677</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.124036245342021</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1960987950247337</v>
+      </c>
+      <c r="C93">
+        <v>-792.2529986151421</v>
+      </c>
+      <c r="D93">
+        <v>208.979001384858</v>
+      </c>
+      <c r="E93">
+        <v>858.9320000000001</v>
+      </c>
+      <c r="F93">
+        <v>1105.832</v>
+      </c>
+      <c r="G93">
+        <v>104.6</v>
+      </c>
+      <c r="H93">
+        <v>968.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>33.5</v>
+      </c>
+      <c r="K93">
+        <v>8.58</v>
+      </c>
+      <c r="L93">
+        <v>24.92</v>
+      </c>
+      <c r="M93">
+        <v>203.1413384</v>
+      </c>
+      <c r="N93">
+        <v>-178.2213384</v>
+      </c>
+      <c r="O93">
+        <v>-44.55533460000001</v>
+      </c>
+      <c r="P93">
+        <v>-133.6660038</v>
+      </c>
+      <c r="Q93">
+        <v>-125.0860038</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.3784280348370304</v>
+      </c>
+      <c r="T93">
+        <v>7.097864927593863</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.03066830241973044</v>
+      </c>
+      <c r="W93">
+        <v>0.1780662328454955</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1226732096789217</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1978427950247337</v>
+      </c>
+      <c r="C94">
+        <v>-806.3380312636048</v>
+      </c>
+      <c r="D94">
+        <v>207.0459687363954</v>
+      </c>
+      <c r="E94">
+        <v>871.0840000000002</v>
+      </c>
+      <c r="F94">
+        <v>1117.984</v>
+      </c>
+      <c r="G94">
+        <v>104.6</v>
+      </c>
+      <c r="H94">
+        <v>968.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>33.5</v>
+      </c>
+      <c r="K94">
+        <v>8.58</v>
+      </c>
+      <c r="L94">
+        <v>24.92</v>
+      </c>
+      <c r="M94">
+        <v>205.3736608</v>
+      </c>
+      <c r="N94">
+        <v>-180.4536608</v>
+      </c>
+      <c r="O94">
+        <v>-45.11341520000001</v>
+      </c>
+      <c r="P94">
+        <v>-135.3402456</v>
+      </c>
+      <c r="Q94">
+        <v>-126.7602456</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4245690391916593</v>
+      </c>
+      <c r="T94">
+        <v>7.9850980435431</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.0303349513064725</v>
+      </c>
+      <c r="W94">
+        <v>0.178127469445001</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1213398052258901</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1995867950247336</v>
+      </c>
+      <c r="C95">
+        <v>-820.3876309863251</v>
+      </c>
+      <c r="D95">
+        <v>205.1483690136751</v>
+      </c>
+      <c r="E95">
+        <v>883.2360000000002</v>
+      </c>
+      <c r="F95">
+        <v>1130.136</v>
+      </c>
+      <c r="G95">
+        <v>104.6</v>
+      </c>
+      <c r="H95">
+        <v>968.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>33.5</v>
+      </c>
+      <c r="K95">
+        <v>8.58</v>
+      </c>
+      <c r="L95">
+        <v>24.92</v>
+      </c>
+      <c r="M95">
+        <v>207.6059832</v>
+      </c>
+      <c r="N95">
+        <v>-182.6859832</v>
+      </c>
+      <c r="O95">
+        <v>-45.6714958</v>
+      </c>
+      <c r="P95">
+        <v>-137.0144874</v>
+      </c>
+      <c r="Q95">
+        <v>-128.4344874</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.4838931876476107</v>
+      </c>
+      <c r="T95">
+        <v>9.125826335477829</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.03000876903435989</v>
+      </c>
+      <c r="W95">
+        <v>0.1781873891283881</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1200350761374396</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2013307950247337</v>
+      </c>
+      <c r="C96">
+        <v>-834.4027631756894</v>
+      </c>
+      <c r="D96">
+        <v>203.2852368243106</v>
+      </c>
+      <c r="E96">
+        <v>895.388</v>
+      </c>
+      <c r="F96">
+        <v>1142.288</v>
+      </c>
+      <c r="G96">
+        <v>104.6</v>
+      </c>
+      <c r="H96">
+        <v>968.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>33.5</v>
+      </c>
+      <c r="K96">
+        <v>8.58</v>
+      </c>
+      <c r="L96">
+        <v>24.92</v>
+      </c>
+      <c r="M96">
+        <v>209.8383056</v>
+      </c>
+      <c r="N96">
+        <v>-184.9183056</v>
+      </c>
+      <c r="O96">
+        <v>-46.2295764</v>
+      </c>
+      <c r="P96">
+        <v>-138.6887292</v>
+      </c>
+      <c r="Q96">
+        <v>-130.1087292</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.562992052255546</v>
+      </c>
+      <c r="T96">
+        <v>10.6467973913908</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02968952681059011</v>
+      </c>
+      <c r="W96">
+        <v>0.1782460339248946</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1187581072423605</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2030747950247336</v>
+      </c>
+      <c r="C97">
+        <v>-848.3843584694239</v>
+      </c>
+      <c r="D97">
+        <v>201.4556415305762</v>
+      </c>
+      <c r="E97">
+        <v>907.5400000000001</v>
+      </c>
+      <c r="F97">
+        <v>1154.44</v>
+      </c>
+      <c r="G97">
+        <v>104.6</v>
+      </c>
+      <c r="H97">
+        <v>968.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>33.5</v>
+      </c>
+      <c r="K97">
+        <v>8.58</v>
+      </c>
+      <c r="L97">
+        <v>24.92</v>
+      </c>
+      <c r="M97">
+        <v>212.070628</v>
+      </c>
+      <c r="N97">
+        <v>-187.150628</v>
+      </c>
+      <c r="O97">
+        <v>-46.787657</v>
+      </c>
+      <c r="P97">
+        <v>-140.362971</v>
+      </c>
+      <c r="Q97">
+        <v>-131.782971</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.6737304627066554</v>
+      </c>
+      <c r="T97">
+        <v>12.77615686966897</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02937700547574179</v>
+      </c>
+      <c r="W97">
+        <v>0.1783034440941062</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1175080219029673</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2048187950247337</v>
+      </c>
+      <c r="C98">
+        <v>-862.3333143006262</v>
+      </c>
+      <c r="D98">
+        <v>199.658685699374</v>
+      </c>
+      <c r="E98">
+        <v>919.6920000000001</v>
+      </c>
+      <c r="F98">
+        <v>1166.592</v>
+      </c>
+      <c r="G98">
+        <v>104.6</v>
+      </c>
+      <c r="H98">
+        <v>968.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>33.5</v>
+      </c>
+      <c r="K98">
+        <v>8.58</v>
+      </c>
+      <c r="L98">
+        <v>24.92</v>
+      </c>
+      <c r="M98">
+        <v>214.3029504</v>
+      </c>
+      <c r="N98">
+        <v>-189.3829504</v>
+      </c>
+      <c r="O98">
+        <v>-47.34573760000001</v>
+      </c>
+      <c r="P98">
+        <v>-142.0372128</v>
+      </c>
+      <c r="Q98">
+        <v>-133.4572128</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.8398380783833175</v>
+      </c>
+      <c r="T98">
+        <v>15.97019608708618</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02907099500203614</v>
+      </c>
+      <c r="W98">
+        <v>0.178359658218126</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1162839800081445</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2065627950247337</v>
+      </c>
+      <c r="C99">
+        <v>-876.2504963655766</v>
+      </c>
+      <c r="D99">
+        <v>197.8935036344233</v>
+      </c>
+      <c r="E99">
+        <v>931.8439999999999</v>
+      </c>
+      <c r="F99">
+        <v>1178.744</v>
+      </c>
+      <c r="G99">
+        <v>104.6</v>
+      </c>
+      <c r="H99">
+        <v>968.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>33.5</v>
+      </c>
+      <c r="K99">
+        <v>8.58</v>
+      </c>
+      <c r="L99">
+        <v>24.92</v>
+      </c>
+      <c r="M99">
+        <v>216.5352728</v>
+      </c>
+      <c r="N99">
+        <v>-191.6152728</v>
+      </c>
+      <c r="O99">
+        <v>-47.90381819999999</v>
+      </c>
+      <c r="P99">
+        <v>-143.7114546</v>
+      </c>
+      <c r="Q99">
+        <v>-135.1314546</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.11668410451109</v>
+      </c>
+      <c r="T99">
+        <v>21.29359478278157</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02877129402263372</v>
+      </c>
+      <c r="W99">
+        <v>0.1784147132880422</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1150851760905349</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2083067950247337</v>
+      </c>
+      <c r="C100">
+        <v>-890.1367400143704</v>
+      </c>
+      <c r="D100">
+        <v>196.1592599856295</v>
+      </c>
+      <c r="E100">
+        <v>943.996</v>
+      </c>
+      <c r="F100">
+        <v>1190.896</v>
+      </c>
+      <c r="G100">
+        <v>104.6</v>
+      </c>
+      <c r="H100">
+        <v>968.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>33.5</v>
+      </c>
+      <c r="K100">
+        <v>8.58</v>
+      </c>
+      <c r="L100">
+        <v>24.92</v>
+      </c>
+      <c r="M100">
+        <v>218.7675952</v>
+      </c>
+      <c r="N100">
+        <v>-193.8475952</v>
+      </c>
+      <c r="O100">
+        <v>-48.4618988</v>
+      </c>
+      <c r="P100">
+        <v>-145.3856964</v>
+      </c>
+      <c r="Q100">
+        <v>-136.8056964</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.670376156766635</v>
+      </c>
+      <c r="T100">
+        <v>31.94039217417235</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0284777093897497</v>
+      </c>
+      <c r="W100">
+        <v>0.178468644785103</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1139108375589988</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2100507950247336</v>
+      </c>
+      <c r="C101">
+        <v>-903.9928515690608</v>
+      </c>
+      <c r="D101">
+        <v>194.4551484309391</v>
+      </c>
+      <c r="E101">
+        <v>956.148</v>
+      </c>
+      <c r="F101">
+        <v>1203.048</v>
+      </c>
+      <c r="G101">
+        <v>104.6</v>
+      </c>
+      <c r="H101">
+        <v>968.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>33.5</v>
+      </c>
+      <c r="K101">
+        <v>8.58</v>
+      </c>
+      <c r="L101">
+        <v>24.92</v>
+      </c>
+      <c r="M101">
+        <v>220.9999176</v>
+      </c>
+      <c r="N101">
+        <v>-196.0799176</v>
+      </c>
+      <c r="O101">
+        <v>-49.0199794</v>
+      </c>
+      <c r="P101">
+        <v>-147.0599382</v>
+      </c>
+      <c r="Q101">
+        <v>-138.4799382</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.33145231353327</v>
+      </c>
+      <c r="T101">
+        <v>63.8807843483447</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.0281900557595502</v>
+      </c>
+      <c r="W101">
+        <v>0.1785214867569706</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1127602230382009</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
